--- a/political.xlsx
+++ b/political.xlsx
@@ -434,482 +434,800 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>430103000043</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>6930103000693</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>320203000726</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>330203000727</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2970203000991</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>2980203000992</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>2990203000993</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>3600203001054</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>6930203001387</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>320303001420</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>330303001421</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>2970303001685</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>2980303001686</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>2990303001687</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>3600303001748</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>6930303002081</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>330403002115</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>3600403002442</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>6930403002775</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>320503002808</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>330503002809</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>3600503003136</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>6930503003469</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>320603003502</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>330603003503</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>2970603003767</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>2980603003768</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>2990603003769</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>3600603003830</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>6930603004163</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>6930703004857</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>430803004901</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>3600803005218</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>6930803005551</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>330903005585</v>
-      </c>
-      <c r="AJ1" s="1" t="n">
-        <v>2980903005850</v>
-      </c>
-      <c r="AK1" s="1" t="n">
-        <v>2990903005851</v>
-      </c>
-      <c r="AL1" s="1" t="n">
-        <v>3600903005912</v>
-      </c>
-      <c r="AM1" s="1" t="n">
-        <v>6930903006245</v>
-      </c>
-      <c r="AN1" s="1" t="n">
-        <v>321003006278</v>
-      </c>
-      <c r="AO1" s="1" t="n">
-        <v>331003006279</v>
-      </c>
-      <c r="AP1" s="1" t="n">
-        <v>2971003006543</v>
-      </c>
-      <c r="AQ1" s="1" t="n">
-        <v>3601003006606</v>
-      </c>
-      <c r="AR1" s="1" t="n">
-        <v>6931003006939</v>
-      </c>
-      <c r="AS1" s="1" t="n">
-        <v>321103006972</v>
-      </c>
-      <c r="AT1" s="1" t="n">
-        <v>331103006973</v>
-      </c>
-      <c r="AU1" s="1" t="n">
-        <v>2971103007237</v>
-      </c>
-      <c r="AV1" s="1" t="n">
-        <v>3601103007300</v>
-      </c>
-      <c r="AW1" s="1" t="n">
-        <v>6931103007633</v>
-      </c>
-      <c r="AX1" s="1" t="n">
-        <v>321203007666</v>
-      </c>
-      <c r="AY1" s="1" t="n">
-        <v>331203007667</v>
-      </c>
-      <c r="AZ1" s="1" t="n">
-        <v>2971203007931</v>
-      </c>
-      <c r="BA1" s="1" t="n">
-        <v>2981203007932</v>
-      </c>
-      <c r="BB1" s="1" t="n">
-        <v>2991203007933</v>
-      </c>
-      <c r="BC1" s="1" t="n">
-        <v>3601203007994</v>
-      </c>
-      <c r="BD1" s="1" t="n">
-        <v>6931203008327</v>
-      </c>
-      <c r="BE1" s="1" t="n">
-        <v>321303008360</v>
-      </c>
-      <c r="BF1" s="1" t="n">
-        <v>331303008361</v>
-      </c>
-      <c r="BG1" s="1" t="n">
-        <v>431303008371</v>
-      </c>
-      <c r="BH1" s="1" t="n">
-        <v>2971303008625</v>
-      </c>
-      <c r="BI1" s="1" t="n">
-        <v>3601303008688</v>
-      </c>
-      <c r="BJ1" s="1" t="n">
-        <v>6931303009021</v>
-      </c>
-      <c r="BK1" s="1" t="n">
-        <v>2971403009319</v>
-      </c>
-      <c r="BL1" s="1" t="n">
-        <v>2981403009320</v>
-      </c>
-      <c r="BM1" s="1" t="n">
-        <v>2991403009321</v>
-      </c>
-      <c r="BN1" s="1" t="n">
-        <v>3601403009382</v>
-      </c>
-      <c r="BO1" s="1" t="n">
-        <v>6931403009715</v>
-      </c>
-      <c r="BP1" s="1" t="n">
-        <v>321503009748</v>
-      </c>
-      <c r="BQ1" s="1" t="n">
-        <v>331503009749</v>
-      </c>
-      <c r="BR1" s="1" t="n">
-        <v>2981503010014</v>
-      </c>
-      <c r="BS1" s="1" t="n">
-        <v>2991503010015</v>
-      </c>
-      <c r="BT1" s="1" t="n">
-        <v>3601503010076</v>
-      </c>
-      <c r="BU1" s="1" t="n">
-        <v>6931503010409</v>
-      </c>
-      <c r="BV1" s="1" t="n">
-        <v>3601603010770</v>
-      </c>
-      <c r="BW1" s="1" t="n">
-        <v>6931603011103</v>
-      </c>
-      <c r="BX1" s="1" t="n">
-        <v>3601703011464</v>
-      </c>
-      <c r="BY1" s="1" t="n">
-        <v>6931703011797</v>
-      </c>
-      <c r="BZ1" s="1" t="n">
-        <v>331803011831</v>
-      </c>
-      <c r="CA1" s="1" t="n">
-        <v>431803011841</v>
-      </c>
-      <c r="CB1" s="1" t="n">
-        <v>6931803012491</v>
-      </c>
-      <c r="CC1" s="1" t="n">
-        <v>3601903012852</v>
-      </c>
-      <c r="CD1" s="1" t="n">
-        <v>6931903013185</v>
-      </c>
-      <c r="CE1" s="1" t="n">
-        <v>322003013218</v>
-      </c>
-      <c r="CF1" s="1" t="n">
-        <v>332003013219</v>
-      </c>
-      <c r="CG1" s="1" t="n">
-        <v>2972003013483</v>
-      </c>
-      <c r="CH1" s="1" t="n">
-        <v>2982003013484</v>
-      </c>
-      <c r="CI1" s="1" t="n">
-        <v>2992003013485</v>
-      </c>
-      <c r="CJ1" s="1" t="n">
-        <v>3602003013546</v>
-      </c>
-      <c r="CK1" s="1" t="n">
-        <v>6932003013879</v>
-      </c>
-      <c r="CL1" s="1" t="n">
-        <v>322103013912</v>
-      </c>
-      <c r="CM1" s="1" t="n">
-        <v>332103013913</v>
-      </c>
-      <c r="CN1" s="1" t="n">
-        <v>2972103014177</v>
-      </c>
-      <c r="CO1" s="1" t="n">
-        <v>2982103014178</v>
-      </c>
-      <c r="CP1" s="1" t="n">
-        <v>2992103014179</v>
-      </c>
-      <c r="CQ1" s="1" t="n">
-        <v>3602103014240</v>
-      </c>
-      <c r="CR1" s="1" t="n">
-        <v>6932103014573</v>
-      </c>
-      <c r="CS1" s="1" t="n">
-        <v>332203014607</v>
-      </c>
-      <c r="CT1" s="1" t="n">
-        <v>432203014617</v>
-      </c>
-      <c r="CU1" s="1" t="n">
-        <v>3602203014934</v>
-      </c>
-      <c r="CV1" s="1" t="n">
-        <v>6932203015267</v>
-      </c>
-      <c r="CW1" s="1" t="n">
-        <v>332303015301</v>
-      </c>
-      <c r="CX1" s="1" t="n">
-        <v>2972303015565</v>
-      </c>
-      <c r="CY1" s="1" t="n">
-        <v>3602303015628</v>
-      </c>
-      <c r="CZ1" s="1" t="n">
-        <v>6932303015961</v>
-      </c>
-      <c r="DA1" s="1" t="n">
-        <v>322403015994</v>
-      </c>
-      <c r="DB1" s="1" t="n">
-        <v>332403015995</v>
-      </c>
-      <c r="DC1" s="1" t="n">
-        <v>2972403016259</v>
-      </c>
-      <c r="DD1" s="1" t="n">
-        <v>3602403016322</v>
-      </c>
-      <c r="DE1" s="1" t="n">
-        <v>6932403016655</v>
-      </c>
-      <c r="DF1" s="1" t="n">
-        <v>322503016688</v>
-      </c>
-      <c r="DG1" s="1" t="n">
-        <v>332503016689</v>
-      </c>
-      <c r="DH1" s="1" t="n">
-        <v>2982503016954</v>
-      </c>
-      <c r="DI1" s="1" t="n">
-        <v>2992503016955</v>
-      </c>
-      <c r="DJ1" s="1" t="n">
-        <v>3602503017016</v>
-      </c>
-      <c r="DK1" s="1" t="n">
-        <v>6932503017349</v>
-      </c>
-      <c r="DL1" s="1" t="n">
-        <v>322603017382</v>
-      </c>
-      <c r="DM1" s="1" t="n">
-        <v>332603017383</v>
-      </c>
-      <c r="DN1" s="1" t="n">
-        <v>2972603017647</v>
-      </c>
-      <c r="DO1" s="1" t="n">
-        <v>3602603017710</v>
-      </c>
-      <c r="DP1" s="1" t="n">
-        <v>6932603018043</v>
-      </c>
-      <c r="DQ1" s="1" t="n">
-        <v>322703018076</v>
-      </c>
-      <c r="DR1" s="1" t="n">
-        <v>332703018077</v>
-      </c>
-      <c r="DS1" s="1" t="n">
-        <v>2982703018342</v>
-      </c>
-      <c r="DT1" s="1" t="n">
-        <v>2992703018343</v>
-      </c>
-      <c r="DU1" s="1" t="n">
-        <v>3602703018404</v>
-      </c>
-      <c r="DV1" s="1" t="n">
-        <v>6932703018737</v>
-      </c>
-      <c r="DW1" s="1" t="n">
-        <v>322803018770</v>
-      </c>
-      <c r="DX1" s="1" t="n">
-        <v>332803018771</v>
-      </c>
-      <c r="DY1" s="1" t="n">
-        <v>3602803019098</v>
-      </c>
-      <c r="DZ1" s="1" t="n">
-        <v>6932803019431</v>
-      </c>
-      <c r="EA1" s="1" t="n">
-        <v>332903019465</v>
-      </c>
-      <c r="EB1" s="1" t="n">
-        <v>2972903019729</v>
-      </c>
-      <c r="EC1" s="1" t="n">
-        <v>2982903019730</v>
-      </c>
-      <c r="ED1" s="1" t="n">
-        <v>2992903019731</v>
-      </c>
-      <c r="EE1" s="1" t="n">
-        <v>3602903019792</v>
-      </c>
-      <c r="EF1" s="1" t="n">
-        <v>6932903020125</v>
-      </c>
-      <c r="EG1" s="1" t="n">
-        <v>323003020158</v>
-      </c>
-      <c r="EH1" s="1" t="n">
-        <v>333003020159</v>
-      </c>
-      <c r="EI1" s="1" t="n">
-        <v>2973003020423</v>
-      </c>
-      <c r="EJ1" s="1" t="n">
-        <v>3603003020486</v>
-      </c>
-      <c r="EK1" s="1" t="n">
-        <v>6933003020819</v>
-      </c>
-      <c r="EL1" s="1" t="n">
-        <v>3603103021180</v>
-      </c>
-      <c r="EM1" s="1" t="n">
-        <v>6933103021513</v>
-      </c>
-      <c r="EN1" s="1" t="n">
-        <v>333203021547</v>
-      </c>
-      <c r="EO1" s="1" t="n">
-        <v>3603203021874</v>
-      </c>
-      <c r="EP1" s="1" t="n">
-        <v>6933203022207</v>
-      </c>
-      <c r="EQ1" s="1" t="n">
-        <v>3603303022568</v>
-      </c>
-      <c r="ER1" s="1" t="n">
-        <v>6933303022901</v>
-      </c>
-      <c r="ES1" s="1" t="n">
-        <v>3603403023262</v>
-      </c>
-      <c r="ET1" s="1" t="n">
-        <v>6933403023595</v>
-      </c>
-      <c r="EU1" s="1" t="n">
-        <v>3603503023956</v>
-      </c>
-      <c r="EV1" s="1" t="n">
-        <v>6933503024289</v>
-      </c>
-      <c r="EW1" s="1" t="n">
-        <v>6933603024983</v>
-      </c>
-      <c r="EX1" s="1" t="n">
-        <v>3603703025344</v>
-      </c>
-      <c r="EY1" s="1" t="n">
-        <v>6933703025677</v>
-      </c>
-      <c r="EZ1" s="1" t="n">
-        <v>6933803026371</v>
-      </c>
-      <c r="FA1" s="1" t="n">
-        <v>3603903026732</v>
-      </c>
-      <c r="FB1" s="1" t="n">
-        <v>6933903027065</v>
-      </c>
-      <c r="FC1" s="1" t="n">
-        <v>6934003027759</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Battle-related deaths (number of people)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides (per 100,000 people)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, female (per 100,000 female)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, male (per 100,000 male)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides (per 100,000 people)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, female (per 100,000 female)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, male (per 100,000 male)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides (per 100,000 people)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, female (per 100,000 female)</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, male (per 100,000 male)</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Battle-related deaths (number of people)</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, female (per 100,000 female)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, male (per 100,000 male)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides (per 100,000 people)</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides (per 100,000 people)</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides (per 100,000 people)</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, female (per 100,000 female)</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, male (per 100,000 male)</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Battle-related deaths (number of people)</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides (per 100,000 people)</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides (per 100,000 people)</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, female (per 100,000 female)</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, male (per 100,000 male)</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, female (per 100,000 female)</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, male (per 100,000 male)</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>Battle-related deaths (number of people)</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides (per 100,000 people)</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, female (per 100,000 female)</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, male (per 100,000 male)</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides (per 100,000 people)</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, female (per 100,000 female)</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, male (per 100,000 male)</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>Battle-related deaths (number of people)</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides (per 100,000 people)</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides (per 100,000 people)</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, female (per 100,000 female)</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, male (per 100,000 male)</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides (per 100,000 people)</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, female (per 100,000 female)</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, male (per 100,000 male)</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides (per 100,000 people)</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, female (per 100,000 female)</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides, male (per 100,000 male)</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>Arms exports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>Intentional homicides (per 100,000 people)</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>Arms imports (SIPRI trend indicator values)</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>Military expenditure (current LCU)</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>Women Business and the Law Index Score (scale 1-100)</t>
+        </is>
       </c>
     </row>
     <row r="2">

--- a/political.xlsx
+++ b/political.xlsx
@@ -3954,7 +3954,7 @@
         <v>38.125</v>
       </c>
       <c r="BW2" t="n">
-        <v>78896858.57471251</v>
+        <v>78898850.57471251</v>
       </c>
       <c r="BX2" t="n">
         <v>73000000</v>
@@ -4014,7 +4014,7 @@
         <v>24829999.9237061</v>
       </c>
       <c r="CQ2" t="n">
-        <v>870402.0322560072</v>
+        <v>872394.0322560072</v>
       </c>
       <c r="CR2" t="n">
         <v>400000.005960464</v>
@@ -4119,7 +4119,7 @@
         <v>34360000.6103516</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-342483.484287411</v>
+        <v>-340491.484287411</v>
       </c>
       <c r="EA2" t="n">
         <v>9869999.88555908</v>
@@ -4419,7 +4419,7 @@
         <v>1720000.02861023</v>
       </c>
       <c r="HV2" t="n">
-        <v>22526097.8389349</v>
+        <v>22528089.8389349</v>
       </c>
       <c r="HW2" t="n">
         <v>16639999.3896484</v>
@@ -4524,7 +4524,7 @@
         <v>61000000</v>
       </c>
       <c r="JE2" t="n">
-        <v>684058.2755701542</v>
+        <v>686050.2755701542</v>
       </c>
       <c r="JF2" t="n">
         <v>11850000.3814697</v>
@@ -4557,7 +4557,7 @@
         <v>280000.001192093</v>
       </c>
       <c r="JP2" t="n">
-        <v>-24508198.85070038</v>
+        <v>-24506206.85070038</v>
       </c>
       <c r="JQ2" t="n">
         <v>3359999.89509583</v>
@@ -4572,10 +4572,10 @@
         <v>330000.013113022</v>
       </c>
       <c r="JU2" t="n">
-        <v>2114338.058557064</v>
+        <v>2116330.058557064</v>
       </c>
       <c r="JV2" t="n">
-        <v>-4902331.328721046</v>
+        <v>-4900339.328721046</v>
       </c>
       <c r="JW2" t="n">
         <v>360000.014305115</v>
@@ -4659,7 +4659,7 @@
         <v>7099999.90463257</v>
       </c>
       <c r="KX2" t="n">
-        <v>1460249.346846923</v>
+        <v>1462241.346846923</v>
       </c>
       <c r="KY2" t="n">
         <v>1519999.98092651</v>
@@ -4803,7 +4803,7 @@
         <v>8220000.26702881</v>
       </c>
       <c r="MT2" t="n">
-        <v>8504453.001817942</v>
+        <v>8506445.001817942</v>
       </c>
       <c r="MU2" t="n">
         <v>3289999.96185303</v>
@@ -5124,7 +5124,7 @@
         <v>170000.001788139</v>
       </c>
       <c r="QW2" t="n">
-        <v>5643475.58764118</v>
+        <v>5645467.58764118</v>
       </c>
       <c r="QX2" t="n">
         <v>209999.993443489</v>
@@ -5211,7 +5211,7 @@
         <v>2329999.92370605</v>
       </c>
       <c r="RZ2" t="n">
-        <v>9474805.975820003</v>
+        <v>9476797.975820003</v>
       </c>
       <c r="SA2" t="n">
         <v>17969999.3133545</v>
@@ -5526,13 +5526,13 @@
         <v>79999.9982118607</v>
       </c>
       <c r="WA2" t="n">
-        <v>147411.394571519</v>
+        <v>149403.394571519</v>
       </c>
       <c r="WB2" t="n">
         <v>2980000.01907349</v>
       </c>
       <c r="WC2" t="n">
-        <v>612800.56367746</v>
+        <v>614792.56367746</v>
       </c>
       <c r="WD2" t="n">
         <v>219999.998807907</v>
@@ -5607,7 +5607,7 @@
         <v>28200000.7629395</v>
       </c>
       <c r="XB2" t="n">
-        <v>-344676.7246893048</v>
+        <v>-342684.7246893048</v>
       </c>
       <c r="XC2" t="n">
         <v>28370000.8392334</v>
@@ -5676,7 +5676,7 @@
         <v>109999.999403954</v>
       </c>
       <c r="XY2" t="n">
-        <v>817988.8187328875</v>
+        <v>819980.8187328875</v>
       </c>
       <c r="XZ2" t="n">
         <v>509999.990463257</v>
@@ -5744,7 +5744,7 @@
         <v>620000.004768372</v>
       </c>
       <c r="L3" t="n">
-        <v>32104725.27877808</v>
+        <v>32106717.27877808</v>
       </c>
       <c r="M3" t="n">
         <v>180000.007152557</v>
@@ -5897,7 +5897,7 @@
         <v>36720001.2207031</v>
       </c>
       <c r="BK3" t="n">
-        <v>1012172.295249522</v>
+        <v>1014164.295249522</v>
       </c>
       <c r="BL3" t="n">
         <v>25239999.7711182</v>
@@ -6068,7 +6068,7 @@
         <v>3940000.05722046</v>
       </c>
       <c r="DP3" t="n">
-        <v>181929992.675781</v>
+        <v>181929992.6757809</v>
       </c>
       <c r="DQ3" t="n">
         <v>3809999.94277954</v>
@@ -6554,13 +6554,13 @@
         <v>819999.992847443</v>
       </c>
       <c r="JV3" t="n">
-        <v>-4328023.722897053</v>
+        <v>-4326031.722897053</v>
       </c>
       <c r="JW3" t="n">
         <v>740000.009536743</v>
       </c>
       <c r="JX3" t="n">
-        <v>-7380021.561248779</v>
+        <v>-7378029.561248779</v>
       </c>
       <c r="JY3" t="n">
         <v>389999.985694885</v>
@@ -6782,7 +6782,7 @@
         <v>10270000.4577637</v>
       </c>
       <c r="MT3" t="n">
-        <v>8225627.058703899</v>
+        <v>8227619.058703899</v>
       </c>
       <c r="MU3" t="n">
         <v>3410000.08583069</v>
@@ -7505,7 +7505,7 @@
         <v>100000.001490116</v>
       </c>
       <c r="WA3" t="n">
-        <v>148325.4613629065</v>
+        <v>150317.4613629065</v>
       </c>
       <c r="WB3" t="n">
         <v>7440000.05722046</v>
@@ -7655,10 +7655,10 @@
         <v>170000.001788139</v>
       </c>
       <c r="XY3" t="n">
-        <v>940547.6586339474</v>
+        <v>942539.6586339474</v>
       </c>
       <c r="XZ3" t="n">
-        <v>-765098.6358088255</v>
+        <v>-763106.6358088255</v>
       </c>
       <c r="YA3" t="n">
         <v>7269999.98092651</v>
@@ -7723,7 +7723,7 @@
         <v>610000.014305115</v>
       </c>
       <c r="L4" t="n">
-        <v>45487353.84949112</v>
+        <v>45489345.84949112</v>
       </c>
       <c r="M4" t="n">
         <v>519999.980926514</v>
@@ -7732,7 +7732,7 @@
         <v>26600000.3814697</v>
       </c>
       <c r="O4" t="n">
-        <v>1625955.613020778</v>
+        <v>1627947.613020778</v>
       </c>
       <c r="P4" t="n">
         <v>9199999.80926514</v>
@@ -7792,7 +7792,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="n">
-        <v>28345385.85746312</v>
+        <v>28347377.85746312</v>
       </c>
       <c r="AJ4" t="n">
         <v>22000000</v>
@@ -7963,7 +7963,7 @@
         <v>21149999.6185303</v>
       </c>
       <c r="CN4" t="n">
-        <v>2083801.495135099</v>
+        <v>2085793.495135099</v>
       </c>
       <c r="CO4" t="n">
         <v>14670000.0762939</v>
@@ -8377,7 +8377,7 @@
         <v>6750000</v>
       </c>
       <c r="HV4" t="n">
-        <v>20850732.88203406</v>
+        <v>20852724.88203406</v>
       </c>
       <c r="HW4" t="n">
         <v>17309999.4659424</v>
@@ -9154,7 +9154,7 @@
         <v>16870000.8392334</v>
       </c>
       <c r="RU4" t="n">
-        <v>198429992.675781</v>
+        <v>198429992.6757809</v>
       </c>
       <c r="RV4" t="n">
         <v>3369999.88555908</v>
@@ -9412,7 +9412,7 @@
         <v>32750000</v>
       </c>
       <c r="VC4" t="n">
-        <v>-6068622.095720768</v>
+        <v>-6066630.095720768</v>
       </c>
       <c r="VD4" t="n">
         <v>829999.983310699</v>
@@ -9490,7 +9490,7 @@
         <v>5670000.07629395</v>
       </c>
       <c r="WC4" t="n">
-        <v>625852.7985736467</v>
+        <v>627844.7985736467</v>
       </c>
       <c r="WD4" t="n">
         <v>430000.007152557</v>
@@ -9735,7 +9735,7 @@
         <v>18319999.6948242</v>
       </c>
       <c r="W5" t="n">
-        <v>1270745.197490156</v>
+        <v>1272737.197490156</v>
       </c>
       <c r="X5" t="n">
         <v>8970000.26702881</v>
@@ -10476,7 +10476,7 @@
         <v>14439999.5803833</v>
       </c>
       <c r="JJ5" t="n">
-        <v>16568748.14680624</v>
+        <v>16570740.14680624</v>
       </c>
       <c r="JK5" t="n">
         <v>36.25</v>
@@ -10953,7 +10953,7 @@
         <v>22430000.3051758</v>
       </c>
       <c r="PM5" t="n">
-        <v>5351305.831331492</v>
+        <v>5353297.831331492</v>
       </c>
       <c r="PN5" t="n">
         <v>18340000.1525879</v>
@@ -11268,7 +11268,7 @@
         <v>10829999.9237061</v>
       </c>
       <c r="TN5" t="n">
-        <v>11792171.69476008</v>
+        <v>11794163.69476008</v>
       </c>
       <c r="TO5" t="n">
         <v>61.25</v>
@@ -11460,7 +11460,7 @@
         <v>39999.9991059303</v>
       </c>
       <c r="VZ5" t="n">
-        <v>494153.2333749887</v>
+        <v>496145.2333749887</v>
       </c>
       <c r="WA5" t="n">
         <v>119999.997317791</v>
@@ -11708,7 +11708,7 @@
         <v>9479999.54223633</v>
       </c>
       <c r="U6" t="n">
-        <v>480502347.1298981</v>
+        <v>480504339.1298981</v>
       </c>
       <c r="V6" t="n">
         <v>16799999.2370605</v>
@@ -11939,7 +11939,7 @@
         <v>5760000.228881841</v>
       </c>
       <c r="CT6" t="n">
-        <v>-2356873.194382429</v>
+        <v>-2354881.194382429</v>
       </c>
       <c r="CU6" t="n">
         <v>1279999.97138977</v>
@@ -11981,7 +11981,7 @@
         <v>25.625</v>
       </c>
       <c r="DH6" t="n">
-        <v>-5806.772160210181</v>
+        <v>-3814.772160210181</v>
       </c>
       <c r="DI6" t="n">
         <v>1512400000</v>
@@ -12314,7 +12314,7 @@
         <v>77160003.6621094</v>
       </c>
       <c r="HO6" t="n">
-        <v>16900.83923832327</v>
+        <v>18892.83923832327</v>
       </c>
       <c r="HP6" t="n">
         <v>310950012.207031</v>
@@ -13346,7 +13346,7 @@
         <v>3829999.92370605</v>
       </c>
       <c r="UU6" t="n">
-        <v>-1107861.881762505</v>
+        <v>-1105869.881762505</v>
       </c>
       <c r="UV6" t="n">
         <v>16700000.7629395</v>
@@ -13556,7 +13556,7 @@
         <v>5760000.228881841</v>
       </c>
       <c r="XM6" t="n">
-        <v>1873147.223357782</v>
+        <v>1875139.223357782</v>
       </c>
       <c r="XN6" t="n">
         <v>870000.004768372</v>
@@ -13687,7 +13687,7 @@
         <v>9119999.88555908</v>
       </c>
       <c r="U7" t="n">
-        <v>545240272.0324707</v>
+        <v>545242264.0324707</v>
       </c>
       <c r="V7" t="n">
         <v>13949999.8092651</v>
@@ -14308,7 +14308,7 @@
         <v>51970001.2207031</v>
       </c>
       <c r="HT7" t="n">
-        <v>-464390.7169737816</v>
+        <v>-462398.7169737816</v>
       </c>
       <c r="HU7" t="n">
         <v>3549999.95231628</v>
@@ -14968,7 +14968,7 @@
         <v>86.875</v>
       </c>
       <c r="QF7" t="n">
-        <v>33903627.46068287</v>
+        <v>33905619.46068287</v>
       </c>
       <c r="QG7" t="n">
         <v>25162000000</v>
@@ -15684,7 +15684,7 @@
         <v>26.25</v>
       </c>
       <c r="AA8" t="n">
-        <v>31397616.45964622</v>
+        <v>31399608.45964622</v>
       </c>
       <c r="AB8" t="n">
         <v>678000000</v>
@@ -16287,7 +16287,7 @@
         <v>49099998.4741211</v>
       </c>
       <c r="HT8" t="n">
-        <v>-162569.7167168856</v>
+        <v>-160577.7167168856</v>
       </c>
       <c r="HU8" t="n">
         <v>3410000.08583069</v>
@@ -16920,7 +16920,7 @@
         <v>73.75</v>
       </c>
       <c r="PW8" t="n">
-        <v>58022223.98196411</v>
+        <v>58024215.98196411</v>
       </c>
       <c r="PX8" t="n">
         <v>1636000000</v>
@@ -16947,7 +16947,7 @@
         <v>86.875</v>
       </c>
       <c r="QF8" t="n">
-        <v>36945490.55704308</v>
+        <v>36947482.55704308</v>
       </c>
       <c r="QG8" t="n">
         <v>45400000000</v>
@@ -17394,7 +17394,7 @@
         <v>34040000.9155273</v>
       </c>
       <c r="VY8" t="n">
-        <v>-79839.96518748999</v>
+        <v>-77847.96518748999</v>
       </c>
       <c r="VZ8" t="n">
         <v>460000.00834465</v>
@@ -17663,7 +17663,7 @@
         <v>26.25</v>
       </c>
       <c r="AA9" t="n">
-        <v>36147297.59155273</v>
+        <v>36149289.59155273</v>
       </c>
       <c r="AB9" t="n">
         <v>326000000</v>
@@ -19361,7 +19361,7 @@
         <v>1000000</v>
       </c>
       <c r="VU9" t="n">
-        <v>1838742.777069807</v>
+        <v>1840734.777069807</v>
       </c>
       <c r="VV9" t="n">
         <v>25450000.7629395</v>
@@ -19391,7 +19391,7 @@
         <v>5110000.1335144</v>
       </c>
       <c r="WE9" t="n">
-        <v>349902.4809150919</v>
+        <v>351894.4809150919</v>
       </c>
       <c r="WF9" t="n">
         <v>319209999.9487401</v>
@@ -19738,7 +19738,7 @@
         <v>870000.004768372</v>
       </c>
       <c r="BG10" t="n">
-        <v>352636.3776857257</v>
+        <v>354628.3776857257</v>
       </c>
       <c r="BH10" t="n">
         <v>43229999.5422363</v>
@@ -22857,7 +22857,7 @@
         <v>76.25</v>
       </c>
       <c r="PW11" t="n">
-        <v>124655895.0311279</v>
+        <v>124657887.0311279</v>
       </c>
       <c r="PX11" t="n">
         <v>520000000</v>
@@ -22893,7 +22893,7 @@
         <v>896913201.413193</v>
       </c>
       <c r="QI11" t="n">
-        <v>860804.0077776909</v>
+        <v>862796.0077776909</v>
       </c>
       <c r="QJ11" t="n">
         <v>2170000.07629395</v>
@@ -23241,7 +23241,7 @@
         <v>460000.00834465</v>
       </c>
       <c r="UU11" t="n">
-        <v>3233014.815088272</v>
+        <v>3235006.815088272</v>
       </c>
       <c r="UV11" t="n">
         <v>17309999.4659424</v>
@@ -24518,7 +24518,7 @@
         <v>9000000</v>
       </c>
       <c r="LU12" t="n">
-        <v>-1991.174285254412</v>
+        <v>0.8257147455880407</v>
       </c>
       <c r="LV12" t="n">
         <v>1.06138070482628</v>
@@ -24872,7 +24872,7 @@
         <v>587461887.2947329</v>
       </c>
       <c r="QI12" t="n">
-        <v>961302.2494018376</v>
+        <v>963294.2494018376</v>
       </c>
       <c r="QJ12" t="n">
         <v>4300000.19073486</v>
@@ -25058,7 +25058,7 @@
         <v>85480003.35693359</v>
       </c>
       <c r="SS12" t="n">
-        <v>185089996.337891</v>
+        <v>185089996.3378909</v>
       </c>
       <c r="ST12" t="n">
         <v>13170000.0762939</v>
@@ -26134,10 +26134,10 @@
         <v>452000000</v>
       </c>
       <c r="HD13" t="n">
-        <v>-1991.425677990792</v>
+        <v>0.5743220092081849</v>
       </c>
       <c r="HE13" t="n">
-        <v>-1990.081519110219</v>
+        <v>1.918480889780625</v>
       </c>
       <c r="HF13" t="n">
         <v>24371212000</v>
@@ -26455,7 +26455,7 @@
         <v>3319999.9332428</v>
       </c>
       <c r="LG13" t="n">
-        <v>4608529.505532444</v>
+        <v>4610521.505532444</v>
       </c>
       <c r="LH13" t="n">
         <v>5429999.82833862</v>
@@ -27552,7 +27552,7 @@
         <v>17090000.1525879</v>
       </c>
       <c r="Y14" t="n">
-        <v>10398379.22923458</v>
+        <v>10400371.22923458</v>
       </c>
       <c r="Z14" t="n">
         <v>26.25</v>
@@ -28590,7 +28590,7 @@
         <v>544000000</v>
       </c>
       <c r="NG14" t="n">
-        <v>-1991.301270054425</v>
+        <v>0.6987299455746552</v>
       </c>
       <c r="NH14" t="n">
         <v>9094000000</v>
@@ -28821,7 +28821,7 @@
         <v>89.375</v>
       </c>
       <c r="QF14" t="n">
-        <v>55196669.13520718</v>
+        <v>55198661.13520718</v>
       </c>
       <c r="QG14" t="n">
         <v>88506000000</v>
@@ -28842,7 +28842,7 @@
         <v>19219999.3133545</v>
       </c>
       <c r="QM14" t="n">
-        <v>11226897.06654383</v>
+        <v>11228889.06654383</v>
       </c>
       <c r="QN14" t="n">
         <v>137899993.896484</v>
@@ -29166,7 +29166,7 @@
         <v>9560000.419616699</v>
       </c>
       <c r="UQ14" t="n">
-        <v>11383421.12787426</v>
+        <v>11385413.12787426</v>
       </c>
       <c r="UR14" t="n">
         <v>46.875</v>
@@ -32521,7 +32521,7 @@
         <v>1047960002.560169</v>
       </c>
       <c r="MX16" t="n">
-        <v>197839996.337891</v>
+        <v>197839996.3378909</v>
       </c>
       <c r="MY16" t="n">
         <v>433570007.324219</v>
@@ -32845,7 +32845,7 @@
         <v>285950012.207031</v>
       </c>
       <c r="RB16" t="n">
-        <v>240589996.337891</v>
+        <v>240589996.3378909</v>
       </c>
       <c r="RC16" t="n">
         <v>6659999.84741211</v>
@@ -33822,7 +33822,7 @@
         <v>2292229998.702184</v>
       </c>
       <c r="EF17" t="n">
-        <v>253679992.675781</v>
+        <v>253679992.6757809</v>
       </c>
       <c r="EG17" t="n">
         <v>811369995.117188</v>
@@ -35223,7 +35223,7 @@
         <v>14449999.8092651</v>
       </c>
       <c r="WE17" t="n">
-        <v>497624.3056718931</v>
+        <v>499616.3056718931</v>
       </c>
       <c r="WF17" t="n">
         <v>576870004.6371669</v>
@@ -35522,7 +35522,7 @@
         <v>91.25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>187954239.7632332</v>
+        <v>187956231.7632332</v>
       </c>
       <c r="AR18" t="n">
         <v>86905808539.7877</v>
@@ -36137,7 +36137,7 @@
         <v>104540000.915527</v>
       </c>
       <c r="IN18" t="n">
-        <v>204679992.675781</v>
+        <v>204679992.6757809</v>
       </c>
       <c r="IO18" t="n">
         <v>42770000.4577637</v>
@@ -37762,7 +37762,7 @@
         <v>54250000</v>
       </c>
       <c r="DZ19" t="n">
-        <v>950564.225183606</v>
+        <v>952556.225183606</v>
       </c>
       <c r="EA19" t="n">
         <v>32560001.373291</v>
@@ -39660,7 +39660,7 @@
         <v>30319999.6948242</v>
       </c>
       <c r="CY20" t="n">
-        <v>238589996.337891</v>
+        <v>238589996.3378909</v>
       </c>
       <c r="CZ20" t="n">
         <v>13439999.5803833</v>
@@ -39783,7 +39783,7 @@
         <v>65.625</v>
       </c>
       <c r="EN20" t="n">
-        <v>109286171.9481387</v>
+        <v>109288163.9481387</v>
       </c>
       <c r="EO20" t="n">
         <v>0.533631407979355</v>
@@ -41256,7 +41256,7 @@
         <v>77519996.64306641</v>
       </c>
       <c r="XK20" t="n">
-        <v>186839996.337891</v>
+        <v>186839996.3378909</v>
       </c>
       <c r="XL20" t="n">
         <v>6849999.90463257</v>
@@ -41336,7 +41336,7 @@
         <v>7721</v>
       </c>
       <c r="B21" t="n">
-        <v>226679992.675781</v>
+        <v>226679992.6757809</v>
       </c>
       <c r="C21" t="n">
         <v>1289999.96185303</v>
@@ -41657,7 +41657,7 @@
         <v>7616424.08370972</v>
       </c>
       <c r="DE21" t="n">
-        <v>15305519.34055245</v>
+        <v>15307511.34055245</v>
       </c>
       <c r="DF21" t="n">
         <v>52836868.2861328</v>
@@ -41840,7 +41840,7 @@
         <v>96.875</v>
       </c>
       <c r="FN21" t="n">
-        <v>31979551.62416124</v>
+        <v>31981543.62416124</v>
       </c>
       <c r="FO21" t="n">
         <v>4429000000</v>
@@ -43253,10 +43253,10 @@
         <v>86.875</v>
       </c>
       <c r="XQ21" t="n">
-        <v>161577246330.1504</v>
+        <v>161577248322.1504</v>
       </c>
       <c r="XR21" t="n">
-        <v>303968199.3481255</v>
+        <v>303970191.3481255</v>
       </c>
       <c r="XS21" t="n">
         <v>19549999.2370605</v>
@@ -44758,7 +44758,7 @@
         <v>48180000.3051758</v>
       </c>
       <c r="RO22" t="n">
-        <v>249429992.675781</v>
+        <v>249429992.6757809</v>
       </c>
       <c r="RP22" t="n">
         <v>29520000.4577637</v>
@@ -45573,7 +45573,7 @@
         <v>92510002.1362305</v>
       </c>
       <c r="CQ23" t="n">
-        <v>9022509.020766616</v>
+        <v>9024501.020766616</v>
       </c>
       <c r="CR23" t="n">
         <v>8449999.80926514</v>
@@ -45615,7 +45615,7 @@
         <v>7603012.5617981</v>
       </c>
       <c r="DE23" t="n">
-        <v>15611756.33458722</v>
+        <v>15613748.33458722</v>
       </c>
       <c r="DF23" t="n">
         <v>60618110.6567383</v>
@@ -45900,13 +45900,13 @@
         <v>66.25</v>
       </c>
       <c r="GV23" t="n">
-        <v>-1991.078967550701</v>
+        <v>0.9210324492993855</v>
       </c>
       <c r="GW23" t="n">
-        <v>-1991.63994576517</v>
+        <v>0.3600542348303239</v>
       </c>
       <c r="GX23" t="n">
-        <v>-1990.513210309112</v>
+        <v>1.48678969088796</v>
       </c>
       <c r="GY23" t="n">
         <v>899000000</v>
@@ -46092,7 +46092,7 @@
         <v>5249691.00952148</v>
       </c>
       <c r="JH23" t="n">
-        <v>1229458.07762599</v>
+        <v>1231450.07762599</v>
       </c>
       <c r="JI23" t="n">
         <v>14726602.5543213</v>
@@ -46245,7 +46245,7 @@
         <v>4223662.37640381</v>
       </c>
       <c r="LG23" t="n">
-        <v>3645979.941215068</v>
+        <v>3647971.941215068</v>
       </c>
       <c r="LH23" t="n">
         <v>6851517.20046997</v>
@@ -46737,7 +46737,7 @@
         <v>49490001.6784668</v>
       </c>
       <c r="RO23" t="n">
-        <v>200839996.337891</v>
+        <v>200839996.3378909</v>
       </c>
       <c r="RP23" t="n">
         <v>56869998.9318848</v>
@@ -47118,7 +47118,7 @@
         <v>3318385.12420654</v>
       </c>
       <c r="WL23" t="n">
-        <v>2801250.121277153</v>
+        <v>2803242.121277153</v>
       </c>
       <c r="WM23" t="n">
         <v>3413664.10255432</v>
@@ -47202,7 +47202,7 @@
         <v>3344440.2217865</v>
       </c>
       <c r="XN23" t="n">
-        <v>2882808.383601084</v>
+        <v>2884800.383601084</v>
       </c>
       <c r="XO23" t="n">
         <v>5835553.16925049</v>
@@ -48509,7 +48509,7 @@
         <v>545119995.117188</v>
       </c>
       <c r="OX24" t="n">
-        <v>198682.1225142069</v>
+        <v>200674.1225142069</v>
       </c>
       <c r="OY24" t="n">
         <v>-15869999.8855591</v>
@@ -48830,7 +48830,7 @@
         <v>71290000.9155273</v>
       </c>
       <c r="TA24" t="n">
-        <v>31258346.31832218</v>
+        <v>31260338.31832218</v>
       </c>
       <c r="TB24" t="n">
         <v>750000</v>
@@ -49004,7 +49004,7 @@
         <v>125360000.610352</v>
       </c>
       <c r="VG24" t="n">
-        <v>196679992.675781</v>
+        <v>196679992.6757809</v>
       </c>
       <c r="VH24" t="n">
         <v>3774558.06732178</v>
@@ -49519,7 +49519,7 @@
         <v>43860000.6103516</v>
       </c>
       <c r="CM25" t="n">
-        <v>207339996.337891</v>
+        <v>207339996.3378909</v>
       </c>
       <c r="CN25" t="n">
         <v>1149999.97615814</v>
@@ -51561,7 +51561,7 @@
         <v>70</v>
       </c>
       <c r="DH26" t="n">
-        <v>27456.26920551528</v>
+        <v>29448.26920551528</v>
       </c>
       <c r="DI26" t="n">
         <v>12377000000</v>
@@ -53540,7 +53540,7 @@
         <v>70</v>
       </c>
       <c r="DH27" t="n">
-        <v>29119.42127380148</v>
+        <v>31111.42127380148</v>
       </c>
       <c r="DI27" t="n">
         <v>14209500000</v>
@@ -53630,7 +53630,7 @@
         <v>38733085.6323242</v>
       </c>
       <c r="EL27" t="n">
-        <v>11472376.08316302</v>
+        <v>11474368.08316302</v>
       </c>
       <c r="EM27" t="n">
         <v>71.875</v>
@@ -54953,7 +54953,7 @@
         <v>9344980.23986816</v>
       </c>
       <c r="VK27" t="n">
-        <v>14291696.95754695</v>
+        <v>14293688.95754695</v>
       </c>
       <c r="VL27" t="n">
         <v>26.875</v>
@@ -55040,7 +55040,7 @@
         <v>13552675.2471924</v>
       </c>
       <c r="WN27" t="n">
-        <v>678643.6426837444</v>
+        <v>680635.6426837444</v>
       </c>
       <c r="WO27" t="n">
         <v>77.5</v>
@@ -55175,7 +55175,7 @@
         <v>15574415.2069092</v>
       </c>
       <c r="YG27" t="n">
-        <v>4603758.516213566</v>
+        <v>4605750.516213566</v>
       </c>
       <c r="YH27" t="n">
         <v>66.25</v>
@@ -57037,7 +57037,7 @@
         <v>3740000.00953674</v>
       </c>
       <c r="WT28" t="n">
-        <v>11193055.55720544</v>
+        <v>11195047.55720544</v>
       </c>
       <c r="WU28" t="n">
         <v>53000000</v>
@@ -57109,7 +57109,7 @@
         <v>137530000000</v>
       </c>
       <c r="XR28" t="n">
-        <v>234709654.958205</v>
+        <v>234709654.9582049</v>
       </c>
       <c r="XS28" t="n">
         <v>10859999.6566772</v>
@@ -59597,7 +59597,7 @@
         <v>38000000</v>
       </c>
       <c r="EV30" t="n">
-        <v>-1990.660357937125</v>
+        <v>1.339642062874262</v>
       </c>
       <c r="EW30" t="n">
         <v>3240000000</v>
@@ -60188,7 +60188,7 @@
         <v>117260002.13623</v>
       </c>
       <c r="MK30" t="n">
-        <v>3951148.272395328</v>
+        <v>3953140.272395328</v>
       </c>
       <c r="ML30" t="n">
         <v>45119998.9318848</v>
@@ -60197,7 +60197,7 @@
         <v>147330001.831055</v>
       </c>
       <c r="MN30" t="n">
-        <v>1912999.623451717</v>
+        <v>1914991.623451717</v>
       </c>
       <c r="MO30" t="n">
         <v>4500000</v>
@@ -60311,7 +60311,7 @@
         <v>878000000</v>
       </c>
       <c r="NZ30" t="n">
-        <v>-1991.035630886693</v>
+        <v>0.9643691133069724</v>
       </c>
       <c r="OA30" t="n">
         <v>47354029145</v>
@@ -60377,7 +60377,7 @@
         <v>219999.998807907</v>
       </c>
       <c r="OV30" t="n">
-        <v>121567691.5896325</v>
+        <v>121569683.5896325</v>
       </c>
       <c r="OW30" t="n">
         <v>359899993.896484</v>
@@ -61207,13 +61207,13 @@
         <v>827000000</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1991.354762449613</v>
+        <v>0.6452375503865966</v>
       </c>
       <c r="AD31" t="n">
-        <v>-1991.570640589247</v>
+        <v>0.4293594107531504</v>
       </c>
       <c r="AE31" t="n">
-        <v>-1991.139440804554</v>
+        <v>0.8605591954458447</v>
       </c>
       <c r="AF31" t="n">
         <v>46774583500</v>
@@ -61231,13 +61231,13 @@
         <v>4000000</v>
       </c>
       <c r="AK31" t="n">
-        <v>-1991.357649243263</v>
+        <v>0.6423507567372475</v>
       </c>
       <c r="AL31" t="n">
-        <v>-1991.33567114895</v>
+        <v>0.6643288510497811</v>
       </c>
       <c r="AM31" t="n">
-        <v>-1991.380064725957</v>
+        <v>0.6199352740425859</v>
       </c>
       <c r="AN31" t="n">
         <v>3434900000</v>
@@ -61366,13 +61366,13 @@
         <v>156000000</v>
       </c>
       <c r="CD31" t="n">
-        <v>-1990.295163668104</v>
+        <v>1.704836331895791</v>
       </c>
       <c r="CE31" t="n">
-        <v>-1991.203234912699</v>
+        <v>0.7967650873011607</v>
       </c>
       <c r="CF31" t="n">
-        <v>-1989.3866998</v>
+        <v>2.613300200000809</v>
       </c>
       <c r="CG31" t="n">
         <v>33274250000</v>
@@ -61555,10 +61555,10 @@
         <v>203000000</v>
       </c>
       <c r="EO31" t="n">
-        <v>-1991.42285295465</v>
+        <v>0.5771470453494771</v>
       </c>
       <c r="EP31" t="n">
-        <v>-1990.845909293249</v>
+        <v>1.154090706750507</v>
       </c>
       <c r="EQ31" t="n">
         <v>38726000000</v>
@@ -61576,7 +61576,7 @@
         <v>30000000</v>
       </c>
       <c r="EV31" t="n">
-        <v>-1990.720081201849</v>
+        <v>1.279918798151172</v>
       </c>
       <c r="EW31" t="n">
         <v>4227500000</v>
@@ -61594,7 +61594,7 @@
         <v>130000000</v>
       </c>
       <c r="FB31" t="n">
-        <v>-1991.068470897697</v>
+        <v>0.9315291023024486</v>
       </c>
       <c r="FC31" t="n">
         <v>50998435000</v>
@@ -61612,13 +61612,13 @@
         <v>288000000</v>
       </c>
       <c r="FH31" t="n">
-        <v>-1991.481363599773</v>
+        <v>0.5186364002269812</v>
       </c>
       <c r="FI31" t="n">
-        <v>-1991.371008175903</v>
+        <v>0.6289918240970138</v>
       </c>
       <c r="FJ31" t="n">
-        <v>-1991.60109609425</v>
+        <v>0.3989039057501315</v>
       </c>
       <c r="FK31" t="n">
         <v>53389040000</v>
@@ -61639,7 +61639,7 @@
         <v>310</v>
       </c>
       <c r="FQ31" t="n">
-        <v>-1989.242087740119</v>
+        <v>2.757912259881323</v>
       </c>
       <c r="FR31" t="n">
         <v>6279477825000</v>
@@ -61714,7 +61714,7 @@
         <v>56169998.1689453</v>
       </c>
       <c r="GP31" t="n">
-        <v>194589996.337891</v>
+        <v>194589996.3378909</v>
       </c>
       <c r="GQ31" t="n">
         <v>-4699200.15335083</v>
@@ -61732,13 +61732,13 @@
         <v>74.375</v>
       </c>
       <c r="GV31" t="n">
-        <v>-1991.172760909069</v>
+        <v>0.8272390909304903</v>
       </c>
       <c r="GW31" t="n">
-        <v>-1991.690422729197</v>
+        <v>0.3095772708028157</v>
       </c>
       <c r="GX31" t="n">
-        <v>-1990.651434293381</v>
+        <v>1.348565706619041</v>
       </c>
       <c r="GY31" t="n">
         <v>1107000000</v>
@@ -61756,10 +61756,10 @@
         <v>237000000</v>
       </c>
       <c r="HD31" t="n">
-        <v>-1991.606044038017</v>
+        <v>0.3939559619827868</v>
       </c>
       <c r="HE31" t="n">
-        <v>-1991.61842918031</v>
+        <v>0.3815708196895855</v>
       </c>
       <c r="HF31" t="n">
         <v>32984208000</v>
@@ -62095,13 +62095,13 @@
         <v>733000000</v>
       </c>
       <c r="LM31" t="n">
-        <v>-1991.467901208168</v>
+        <v>0.5320987918325883</v>
       </c>
       <c r="LN31" t="n">
-        <v>-1991.591437978506</v>
+        <v>0.4085620214939212</v>
       </c>
       <c r="LO31" t="n">
-        <v>-1991.343305935393</v>
+        <v>0.6566940646066541</v>
       </c>
       <c r="LP31" t="n">
         <v>12961400000</v>
@@ -62119,13 +62119,13 @@
         <v>700000000</v>
       </c>
       <c r="LU31" t="n">
-        <v>-1991.429463900157</v>
+        <v>0.5705360998431317</v>
       </c>
       <c r="LV31" t="n">
-        <v>-1991.421936769526</v>
+        <v>0.5780632304742852</v>
       </c>
       <c r="LW31" t="n">
-        <v>-1991.435608027445</v>
+        <v>0.5643919725552493</v>
       </c>
       <c r="LX31" t="n">
         <v>83589000000</v>
@@ -62233,7 +62233,7 @@
         <v>493000000</v>
       </c>
       <c r="NG31" t="n">
-        <v>-1992.11157162629</v>
+        <v>-0.1115716262901997</v>
       </c>
       <c r="NH31" t="n">
         <v>16588800000</v>
@@ -62251,7 +62251,7 @@
         <v>318000000</v>
       </c>
       <c r="NM31" t="n">
-        <v>-1990.996244051674</v>
+        <v>1.003755948326334</v>
       </c>
       <c r="NN31" t="n">
         <v>78093913133.71001</v>
@@ -62269,10 +62269,10 @@
         <v>15000000</v>
       </c>
       <c r="NS31" t="n">
-        <v>-1991.529726117213</v>
+        <v>0.4702738827867634</v>
       </c>
       <c r="NT31" t="n">
-        <v>-1991.734850468069</v>
+        <v>0.2651495319313852</v>
       </c>
       <c r="NU31" t="n">
         <v>5395700000</v>
@@ -62290,7 +62290,7 @@
         <v>863000000</v>
       </c>
       <c r="NZ31" t="n">
-        <v>-1991.060989933309</v>
+        <v>0.939010066691374</v>
       </c>
       <c r="OA31" t="n">
         <v>51976100908.75</v>
@@ -62308,10 +62308,10 @@
         <v>748000000</v>
       </c>
       <c r="OF31" t="n">
-        <v>-1990.160606332052</v>
+        <v>1.839393667947917</v>
       </c>
       <c r="OG31" t="n">
-        <v>-1984.934393633105</v>
+        <v>7.065606366894258</v>
       </c>
       <c r="OH31" t="n">
         <v>860692200000</v>
@@ -62356,7 +62356,7 @@
         <v>150000.005960464</v>
       </c>
       <c r="OV31" t="n">
-        <v>122207448.0157418</v>
+        <v>122209440.0157418</v>
       </c>
       <c r="OW31" t="n">
         <v>413769989.013672</v>
@@ -62419,13 +62419,13 @@
         <v>1569000000</v>
       </c>
       <c r="PQ31" t="n">
-        <v>-1991.790929666097</v>
+        <v>0.2090703339034867</v>
       </c>
       <c r="PR31" t="n">
-        <v>-1991.748541583369</v>
+        <v>0.2514584166303706</v>
       </c>
       <c r="PS31" t="n">
-        <v>-1991.835215666376</v>
+        <v>0.1647843336242971</v>
       </c>
       <c r="PT31" t="n">
         <v>6156947500000</v>
@@ -62443,7 +62443,7 @@
         <v>423000000</v>
       </c>
       <c r="PY31" t="n">
-        <v>-1991.264832023359</v>
+        <v>0.7351679766408397</v>
       </c>
       <c r="PZ31" t="n">
         <v>59870500000000</v>
@@ -63004,7 +63004,7 @@
         <v>2009999.99046326</v>
       </c>
       <c r="XD31" t="n">
-        <v>724756.7801134288</v>
+        <v>726748.7801134288</v>
       </c>
       <c r="XE31" t="n">
         <v>6039999.96185303</v>
@@ -63105,76 +63105,76 @@
         <v>230</v>
       </c>
       <c r="B32" t="n">
-        <v>112488030.5154629</v>
+        <v>112490022.5154629</v>
       </c>
       <c r="C32" t="n">
-        <v>3736421.763320316</v>
+        <v>3738413.763320316</v>
       </c>
       <c r="D32" t="n">
-        <v>179683801.822937</v>
+        <v>179685793.822937</v>
       </c>
       <c r="E32" t="n">
-        <v>89716122.66710281</v>
+        <v>89718114.66710281</v>
       </c>
       <c r="F32" t="n">
-        <v>460543866.4664879</v>
+        <v>460545858.4664879</v>
       </c>
       <c r="G32" t="n">
-        <v>37065341.46067619</v>
+        <v>37067333.46067619</v>
       </c>
       <c r="H32" t="n">
-        <v>39501962.48262692</v>
+        <v>39503954.48262692</v>
       </c>
       <c r="I32" t="n">
-        <v>592915201.5969391</v>
+        <v>592917193.5969391</v>
       </c>
       <c r="J32" t="n">
-        <v>6093479.266614258</v>
+        <v>6095471.266614258</v>
       </c>
       <c r="K32" t="n">
-        <v>84206329.91232967</v>
+        <v>84208321.91232967</v>
       </c>
       <c r="L32" t="n">
-        <v>420200953.8294334</v>
+        <v>420202945.8294334</v>
       </c>
       <c r="M32" t="n">
-        <v>4683364.270718873</v>
+        <v>4685356.270718873</v>
       </c>
       <c r="N32" t="n">
-        <v>79277524.8207984</v>
+        <v>79279516.8207984</v>
       </c>
       <c r="O32" t="n">
-        <v>5898346.39189595</v>
+        <v>5900338.39189595</v>
       </c>
       <c r="P32" t="n">
-        <v>124168099.1050549</v>
+        <v>124170091.1050549</v>
       </c>
       <c r="Q32" t="n">
-        <v>144667984.4185944</v>
+        <v>144669976.4185944</v>
       </c>
       <c r="R32" t="n">
-        <v>43116192.78408909</v>
+        <v>43118184.78408909</v>
       </c>
       <c r="S32" t="n">
-        <v>5198219077.220215</v>
+        <v>5198221069.220215</v>
       </c>
       <c r="T32" t="n">
-        <v>454275164.0943031</v>
+        <v>454277156.0943031</v>
       </c>
       <c r="U32" t="n">
-        <v>2163688394.596924</v>
+        <v>2163690386.596924</v>
       </c>
       <c r="V32" t="n">
-        <v>9053954.353660226</v>
+        <v>9055946.353660226</v>
       </c>
       <c r="W32" t="n">
-        <v>7250594.432738781</v>
+        <v>7252586.432738781</v>
       </c>
       <c r="X32" t="n">
-        <v>44771346.57108832</v>
+        <v>44773338.57108832</v>
       </c>
       <c r="Y32" t="n">
-        <v>3930806.194015384</v>
+        <v>3932798.194015384</v>
       </c>
       <c r="Z32" t="n">
         <v>31.875</v>
@@ -63186,13 +63186,13 @@
         <v>362000000</v>
       </c>
       <c r="AC32" t="n">
-        <v>-1991.402930353189</v>
+        <v>0.5970696468109793</v>
       </c>
       <c r="AD32" t="n">
-        <v>-1991.604541917366</v>
+        <v>0.3954580826339793</v>
       </c>
       <c r="AE32" t="n">
-        <v>-1991.202203394516</v>
+        <v>0.7977966054841801</v>
       </c>
       <c r="AF32" t="n">
         <v>48752894000</v>
@@ -63210,13 +63210,13 @@
         <v>8000000</v>
       </c>
       <c r="AK32" t="n">
-        <v>-1991.368188152145</v>
+        <v>0.6318118478556762</v>
       </c>
       <c r="AL32" t="n">
-        <v>-1991.345574340631</v>
+        <v>0.6544256593693589</v>
       </c>
       <c r="AM32" t="n">
-        <v>-1991.391229728733</v>
+        <v>0.6087702712664687</v>
       </c>
       <c r="AN32" t="n">
         <v>4081900000</v>
@@ -63237,88 +63237,88 @@
         <v>4207971900.94899</v>
       </c>
       <c r="AT32" t="n">
-        <v>84875894.19337368</v>
+        <v>84877886.19337368</v>
       </c>
       <c r="AU32" t="n">
-        <v>5044031.079787135</v>
+        <v>5046023.079787135</v>
       </c>
       <c r="AV32" t="n">
-        <v>474835.593575947</v>
+        <v>476827.593575947</v>
       </c>
       <c r="AW32" t="n">
-        <v>76499042.92736816</v>
+        <v>76501034.92736816</v>
       </c>
       <c r="AX32" t="n">
-        <v>30697732.10092413</v>
+        <v>30699724.10092413</v>
       </c>
       <c r="AY32" t="n">
-        <v>185088674.1899605</v>
+        <v>185090666.1899605</v>
       </c>
       <c r="AZ32" t="n">
-        <v>377502.2072068006</v>
+        <v>379494.2072068006</v>
       </c>
       <c r="BA32" t="n">
-        <v>63577617.12852478</v>
+        <v>63579609.12852478</v>
       </c>
       <c r="BB32" t="n">
-        <v>120158099.9263124</v>
+        <v>120160091.9263124</v>
       </c>
       <c r="BC32" t="n">
-        <v>2805732.119534448</v>
+        <v>2807724.119534448</v>
       </c>
       <c r="BD32" t="n">
-        <v>2313778.057100683</v>
+        <v>2315770.057100683</v>
       </c>
       <c r="BE32" t="n">
-        <v>1256419241.073608</v>
+        <v>1256421233.073608</v>
       </c>
       <c r="BF32" t="n">
-        <v>101161730.3889084</v>
+        <v>101163722.3889084</v>
       </c>
       <c r="BG32" t="n">
-        <v>3931954.803868354</v>
+        <v>3933946.803868354</v>
       </c>
       <c r="BH32" t="n">
-        <v>49523112.39116371</v>
+        <v>49525104.39116371</v>
       </c>
       <c r="BI32" t="n">
-        <v>478030.9906564811</v>
+        <v>480022.9906564811</v>
       </c>
       <c r="BJ32" t="n">
-        <v>7343617.072981119</v>
+        <v>7345609.072981119</v>
       </c>
       <c r="BK32" t="n">
-        <v>3271253.302802622</v>
+        <v>3273245.302802622</v>
       </c>
       <c r="BL32" t="n">
-        <v>48738858.32802892</v>
+        <v>48740850.32802892</v>
       </c>
       <c r="BM32" t="n">
-        <v>41666398.65113306</v>
+        <v>41668390.65113306</v>
       </c>
       <c r="BN32" t="n">
-        <v>2714858529.970978</v>
+        <v>2714860521.970978</v>
       </c>
       <c r="BO32" t="n">
-        <v>299182744.2299061</v>
+        <v>299184736.2299061</v>
       </c>
       <c r="BP32" t="n">
-        <v>327493135.8116493</v>
+        <v>327495127.8116493</v>
       </c>
       <c r="BQ32" t="n">
-        <v>34322082.05623102</v>
+        <v>34324074.05623102</v>
       </c>
       <c r="BR32" t="n">
-        <v>7571997.399000168</v>
+        <v>7573989.399000168</v>
       </c>
       <c r="BS32" t="n">
-        <v>6060366.621071115</v>
+        <v>6062358.621071115</v>
       </c>
       <c r="BT32" t="n">
-        <v>19582219.9699237</v>
+        <v>19584211.9699237</v>
       </c>
       <c r="BU32" t="n">
-        <v>-2248280.808872223</v>
+        <v>-2246288.808872223</v>
       </c>
       <c r="BV32" t="n">
         <v>49.375</v>
@@ -63345,13 +63345,13 @@
         <v>14000000</v>
       </c>
       <c r="CD32" t="n">
-        <v>-1990.304182780074</v>
+        <v>1.695817219925786</v>
       </c>
       <c r="CE32" t="n">
-        <v>-1991.220386945324</v>
+        <v>0.7796130546768296</v>
       </c>
       <c r="CF32" t="n">
-        <v>-1989.38824826378</v>
+        <v>2.611751736219602</v>
       </c>
       <c r="CG32" t="n">
         <v>36757250000</v>
@@ -63363,73 +63363,73 @@
         <v>100</v>
       </c>
       <c r="CJ32" t="n">
-        <v>7069387.268648967</v>
+        <v>7071379.268648967</v>
       </c>
       <c r="CK32" t="n">
-        <v>189204720.9727068</v>
+        <v>189206712.9727068</v>
       </c>
       <c r="CL32" t="n">
-        <v>71620973.04220772</v>
+        <v>71622965.04220772</v>
       </c>
       <c r="CM32" t="n">
-        <v>299060054.7087326</v>
+        <v>299062046.7087326</v>
       </c>
       <c r="CN32" t="n">
-        <v>4652483.278109878</v>
+        <v>4654475.278109878</v>
       </c>
       <c r="CO32" t="n">
-        <v>109414286.5626006</v>
+        <v>109416278.5626006</v>
       </c>
       <c r="CP32" t="n">
-        <v>195339250.0305729</v>
+        <v>195341242.0305729</v>
       </c>
       <c r="CQ32" t="n">
-        <v>12516269.15869975</v>
+        <v>12518261.15869975</v>
       </c>
       <c r="CR32" t="n">
-        <v>46082169.73588264</v>
+        <v>46084161.73588264</v>
       </c>
       <c r="CS32" t="n">
-        <v>76793434.1159935</v>
+        <v>76795426.1159935</v>
       </c>
       <c r="CT32" t="n">
-        <v>18798175.75239205</v>
+        <v>18800167.75239205</v>
       </c>
       <c r="CU32" t="n">
-        <v>4301249.347581446</v>
+        <v>4303241.347581446</v>
       </c>
       <c r="CV32" t="n">
-        <v>46184997.14736167</v>
+        <v>46186989.14736167</v>
       </c>
       <c r="CW32" t="n">
-        <v>38553065.18157196</v>
+        <v>38555057.18157196</v>
       </c>
       <c r="CX32" t="n">
-        <v>29301180.99688005</v>
+        <v>29303172.99688005</v>
       </c>
       <c r="CY32" t="n">
-        <v>107330536.5845795</v>
+        <v>107332528.5845795</v>
       </c>
       <c r="CZ32" t="n">
-        <v>31209088.72242498</v>
+        <v>31211080.72242498</v>
       </c>
       <c r="DA32" t="n">
-        <v>2315495368.663636</v>
+        <v>2315497360.663636</v>
       </c>
       <c r="DB32" t="n">
-        <v>266628927.3715248</v>
+        <v>266630919.3715248</v>
       </c>
       <c r="DC32" t="n">
-        <v>17034034.55893081</v>
+        <v>17036026.55893081</v>
       </c>
       <c r="DD32" t="n">
-        <v>10582630.25402141</v>
+        <v>10584622.25402141</v>
       </c>
       <c r="DE32" t="n">
-        <v>16989822.80774355</v>
+        <v>16991814.80774355</v>
       </c>
       <c r="DF32" t="n">
-        <v>80463615.98952007</v>
+        <v>80465607.98952007</v>
       </c>
       <c r="DG32" t="n">
         <v>78.75</v>
@@ -63444,88 +63444,88 @@
         <v>1226452568.31981</v>
       </c>
       <c r="DK32" t="n">
-        <v>6654536.759824827</v>
+        <v>6656528.759824827</v>
       </c>
       <c r="DL32" t="n">
-        <v>14525616.9224323</v>
+        <v>14527608.9224323</v>
       </c>
       <c r="DM32" t="n">
-        <v>4799065.458197922</v>
+        <v>4801057.458197922</v>
       </c>
       <c r="DN32" t="n">
-        <v>132197203.4803467</v>
+        <v>132199195.4803467</v>
       </c>
       <c r="DO32" t="n">
-        <v>46158305.89639616</v>
+        <v>46160297.89639616</v>
       </c>
       <c r="DP32" t="n">
-        <v>270169526.5494251</v>
+        <v>270171518.5494251</v>
       </c>
       <c r="DQ32" t="n">
-        <v>32329111.14840555</v>
+        <v>32331103.14840555</v>
       </c>
       <c r="DR32" t="n">
-        <v>52960329.69140387</v>
+        <v>52962321.69140387</v>
       </c>
       <c r="DS32" t="n">
-        <v>188354675.2971897</v>
+        <v>188356667.2971897</v>
       </c>
       <c r="DT32" t="n">
-        <v>58382513.81369734</v>
+        <v>58384505.81369734</v>
       </c>
       <c r="DU32" t="n">
-        <v>20145203.24164319</v>
+        <v>20147195.24164319</v>
       </c>
       <c r="DV32" t="n">
-        <v>82332720.42970467</v>
+        <v>82334712.42970467</v>
       </c>
       <c r="DW32" t="n">
-        <v>81805134.31118679</v>
+        <v>81807126.31118679</v>
       </c>
       <c r="DX32" t="n">
-        <v>1954283.85121955</v>
+        <v>1956275.85121955</v>
       </c>
       <c r="DY32" t="n">
-        <v>99485664.50343607</v>
+        <v>99487656.50343607</v>
       </c>
       <c r="DZ32" t="n">
-        <v>1939365.414779126</v>
+        <v>1941357.414779126</v>
       </c>
       <c r="EA32" t="n">
-        <v>75996031.06821918</v>
+        <v>75998023.06821918</v>
       </c>
       <c r="EB32" t="n">
-        <v>21175157.48136926</v>
+        <v>21177149.48136926</v>
       </c>
       <c r="EC32" t="n">
-        <v>66098030.98026276</v>
+        <v>66100022.98026276</v>
       </c>
       <c r="ED32" t="n">
-        <v>18534927.41677833</v>
+        <v>18536919.41677833</v>
       </c>
       <c r="EE32" t="n">
-        <v>2938511476.708771</v>
+        <v>2938513468.708771</v>
       </c>
       <c r="EF32" t="n">
-        <v>475021854.262352</v>
+        <v>475023846.262352</v>
       </c>
       <c r="EG32" t="n">
-        <v>1169911882.167953</v>
+        <v>1169913874.167953</v>
       </c>
       <c r="EH32" t="n">
-        <v>42482388.48540878</v>
+        <v>42484380.48540878</v>
       </c>
       <c r="EI32" t="n">
-        <v>11581297.80303359</v>
+        <v>11583289.80303359</v>
       </c>
       <c r="EJ32" t="n">
-        <v>6353676.161929339</v>
+        <v>6355668.161929339</v>
       </c>
       <c r="EK32" t="n">
-        <v>45758178.80504322</v>
+        <v>45760170.80504322</v>
       </c>
       <c r="EL32" t="n">
-        <v>6286454.200381517</v>
+        <v>6288446.200381517</v>
       </c>
       <c r="EM32" t="n">
         <v>80</v>
@@ -63534,10 +63534,10 @@
         <v>261000000</v>
       </c>
       <c r="EO32" t="n">
-        <v>-1991.435826388813</v>
+        <v>0.564173611186856</v>
       </c>
       <c r="EP32" t="n">
-        <v>-1990.853817541169</v>
+        <v>1.146182458831038</v>
       </c>
       <c r="EQ32" t="n">
         <v>56169000000</v>
@@ -63555,7 +63555,7 @@
         <v>17000000</v>
       </c>
       <c r="EV32" t="n">
-        <v>-1990.779804466572</v>
+        <v>1.220195533428082</v>
       </c>
       <c r="EW32" t="n">
         <v>6801368000</v>
@@ -63573,7 +63573,7 @@
         <v>274000000</v>
       </c>
       <c r="FB32" t="n">
-        <v>-1991.111094024486</v>
+        <v>0.8889059755138788</v>
       </c>
       <c r="FC32" t="n">
         <v>56740720000</v>
@@ -63591,13 +63591,13 @@
         <v>204000000</v>
       </c>
       <c r="FH32" t="n">
-        <v>-1991.535280943517</v>
+        <v>0.4647190564828634</v>
       </c>
       <c r="FI32" t="n">
-        <v>-1991.400995740186</v>
+        <v>0.5990042598144001</v>
       </c>
       <c r="FJ32" t="n">
-        <v>-1991.68048570836</v>
+        <v>0.3195142916408713</v>
       </c>
       <c r="FK32" t="n">
         <v>61855000000</v>
@@ -63618,7 +63618,7 @@
         <v>217</v>
       </c>
       <c r="FQ32" t="n">
-        <v>-1989.319960989958</v>
+        <v>2.680039010041895</v>
       </c>
       <c r="FR32" t="n">
         <v>6900585000000</v>
@@ -63627,97 +63627,97 @@
         <v>83574568840.2287</v>
       </c>
       <c r="FT32" t="n">
-        <v>9775847.062131705</v>
+        <v>9777839.062131705</v>
       </c>
       <c r="FU32" t="n">
-        <v>8196490.829811931</v>
+        <v>8198482.829811931</v>
       </c>
       <c r="FV32" t="n">
-        <v>4821640.206450999</v>
+        <v>4823632.206450999</v>
       </c>
       <c r="FW32" t="n">
-        <v>2652674.646321654</v>
+        <v>2654666.646321654</v>
       </c>
       <c r="FX32" t="n">
-        <v>-5347945.916338682</v>
+        <v>-5345953.916338682</v>
       </c>
       <c r="FY32" t="n">
-        <v>273548879.8030205</v>
+        <v>273550871.8030205</v>
       </c>
       <c r="FZ32" t="n">
-        <v>3408513.774925485</v>
+        <v>3410505.774925485</v>
       </c>
       <c r="GA32" t="n">
-        <v>145640560.4799309</v>
+        <v>145642552.4799309</v>
       </c>
       <c r="GB32" t="n">
-        <v>547277914.4932251</v>
+        <v>547279906.4932251</v>
       </c>
       <c r="GC32" t="n">
-        <v>3222421.817024767</v>
+        <v>3224413.817024767</v>
       </c>
       <c r="GD32" t="n">
-        <v>20032927.67464304</v>
+        <v>20034919.67464304</v>
       </c>
       <c r="GE32" t="n">
-        <v>1548442606.941147</v>
+        <v>1548444598.941147</v>
       </c>
       <c r="GF32" t="n">
-        <v>2829594.264031053</v>
+        <v>2831586.264031053</v>
       </c>
       <c r="GG32" t="n">
-        <v>1996582.7230464</v>
+        <v>1998574.7230464</v>
       </c>
       <c r="GH32" t="n">
-        <v>-14923509.80354595</v>
+        <v>-14921517.80354595</v>
       </c>
       <c r="GI32" t="n">
-        <v>523249.3800735585</v>
+        <v>525241.3800735585</v>
       </c>
       <c r="GJ32" t="n">
-        <v>20844260.61460227</v>
+        <v>20846252.61460227</v>
       </c>
       <c r="GK32" t="n">
-        <v>8648743.584903419</v>
+        <v>8650735.584903419</v>
       </c>
       <c r="GL32" t="n">
-        <v>-5832497.641849518</v>
+        <v>-5830505.641849518</v>
       </c>
       <c r="GM32" t="n">
-        <v>9877663.263615727</v>
+        <v>9879655.263615727</v>
       </c>
       <c r="GN32" t="n">
-        <v>3024309314.82193</v>
+        <v>3024311306.82193</v>
       </c>
       <c r="GO32" t="n">
-        <v>306477915.5598011</v>
+        <v>306479907.5598011</v>
       </c>
       <c r="GP32" t="n">
-        <v>124609454.8399143</v>
+        <v>124611446.8399143</v>
       </c>
       <c r="GQ32" t="n">
-        <v>20024497.86882853</v>
+        <v>20026489.86882853</v>
       </c>
       <c r="GR32" t="n">
-        <v>2558197.888942957</v>
+        <v>2560189.888942957</v>
       </c>
       <c r="GS32" t="n">
-        <v>7601053.581949174</v>
+        <v>7603045.581949174</v>
       </c>
       <c r="GT32" t="n">
-        <v>50985412.5097965</v>
+        <v>50987404.5097965</v>
       </c>
       <c r="GU32" t="n">
         <v>74.375</v>
       </c>
       <c r="GV32" t="n">
-        <v>-1991.184485078866</v>
+        <v>0.8155149211343797</v>
       </c>
       <c r="GW32" t="n">
-        <v>-1991.696732349701</v>
+        <v>0.3032676502993769</v>
       </c>
       <c r="GX32" t="n">
-        <v>-1990.668712291414</v>
+        <v>1.331287708585421</v>
       </c>
       <c r="GY32" t="n">
         <v>1174770000</v>
@@ -63735,10 +63735,10 @@
         <v>485000000</v>
       </c>
       <c r="HD32" t="n">
-        <v>-1991.616064373974</v>
+        <v>0.3839356260258206</v>
       </c>
       <c r="HE32" t="n">
-        <v>-1991.703813073093</v>
+        <v>0.2961869269067279</v>
       </c>
       <c r="HF32" t="n">
         <v>32885714000</v>
@@ -63756,67 +63756,67 @@
         <v>102131128.712247</v>
       </c>
       <c r="HK32" t="n">
-        <v>560559.7007263899</v>
+        <v>562551.7007263899</v>
       </c>
       <c r="HL32" t="n">
-        <v>2388904.511694476</v>
+        <v>2390896.511694476</v>
       </c>
       <c r="HM32" t="n">
-        <v>4036651.710640639</v>
+        <v>4038643.710640639</v>
       </c>
       <c r="HN32" t="n">
-        <v>107290328.5715485</v>
+        <v>107292320.5715485</v>
       </c>
       <c r="HO32" t="n">
-        <v>446281.1551268213</v>
+        <v>448273.1551268213</v>
       </c>
       <c r="HP32" t="n">
-        <v>72521937.19255352</v>
+        <v>72523929.19255352</v>
       </c>
       <c r="HQ32" t="n">
-        <v>43678536.77667284</v>
+        <v>43680528.77667284</v>
       </c>
       <c r="HR32" t="n">
-        <v>866996.6753928661</v>
+        <v>868988.6753928661</v>
       </c>
       <c r="HS32" t="n">
-        <v>35059663.07305628</v>
+        <v>35061655.07305628</v>
       </c>
       <c r="HT32" t="n">
-        <v>7081134.289448261</v>
+        <v>7083126.289448261</v>
       </c>
       <c r="HU32" t="n">
-        <v>12429755.26442361</v>
+        <v>12431747.26442361</v>
       </c>
       <c r="HV32" t="n">
-        <v>-2604376.514576912</v>
+        <v>-2602384.514576912</v>
       </c>
       <c r="HW32" t="n">
-        <v>3662122.980588019</v>
+        <v>3664114.980588019</v>
       </c>
       <c r="HX32" t="n">
-        <v>431440421.2278471</v>
+        <v>431442413.2278471</v>
       </c>
       <c r="HY32" t="n">
-        <v>3987272.374491796</v>
+        <v>3989264.374491796</v>
       </c>
       <c r="HZ32" t="n">
-        <v>133516056.2447844</v>
+        <v>133518048.2447844</v>
       </c>
       <c r="IA32" t="n">
-        <v>13166757.37791932</v>
+        <v>13168749.37791932</v>
       </c>
       <c r="IB32" t="n">
-        <v>9571223.103149414</v>
+        <v>9573215.103149414</v>
       </c>
       <c r="IC32" t="n">
-        <v>4812689.100982368</v>
+        <v>4814681.100982368</v>
       </c>
       <c r="ID32" t="n">
-        <v>14790380.54131806</v>
+        <v>14792372.54131806</v>
       </c>
       <c r="IE32" t="n">
-        <v>7042935.987285018</v>
+        <v>7044927.987285018</v>
       </c>
       <c r="IF32" t="n">
         <v>69.375</v>
@@ -63828,88 +63828,88 @@
         <v>376385189.827145</v>
       </c>
       <c r="II32" t="n">
-        <v>3132536.700647652</v>
+        <v>3134528.700647652</v>
       </c>
       <c r="IJ32" t="n">
-        <v>9276214.76167804</v>
+        <v>9278206.76167804</v>
       </c>
       <c r="IK32" t="n">
-        <v>24193065.69535065</v>
+        <v>24195057.69535065</v>
       </c>
       <c r="IL32" t="n">
-        <v>88441962.26169205</v>
+        <v>88443954.26169205</v>
       </c>
       <c r="IM32" t="n">
-        <v>44392582.71233678</v>
+        <v>44394574.71233678</v>
       </c>
       <c r="IN32" t="n">
-        <v>125060788.2267842</v>
+        <v>125062780.2267842</v>
       </c>
       <c r="IO32" t="n">
-        <v>28263801.40792263</v>
+        <v>28265793.40792263</v>
       </c>
       <c r="IP32" t="n">
-        <v>17057961.59996271</v>
+        <v>17059953.59996271</v>
       </c>
       <c r="IQ32" t="n">
-        <v>72157571.85820764</v>
+        <v>72159563.85820764</v>
       </c>
       <c r="IR32" t="n">
-        <v>52676628.82043266</v>
+        <v>52678620.82043266</v>
       </c>
       <c r="IS32" t="n">
-        <v>12577686.03121948</v>
+        <v>12579678.03121948</v>
       </c>
       <c r="IT32" t="n">
-        <v>103620536.9838066</v>
+        <v>103622528.9838066</v>
       </c>
       <c r="IU32" t="n">
-        <v>33064559.5105443</v>
+        <v>33066551.5105443</v>
       </c>
       <c r="IV32" t="n">
-        <v>49165525.16876853</v>
+        <v>49167517.16876853</v>
       </c>
       <c r="IW32" t="n">
-        <v>55805388.33426221</v>
+        <v>55807380.33426221</v>
       </c>
       <c r="IX32" t="n">
-        <v>36378329.62764978</v>
+        <v>36380321.62764978</v>
       </c>
       <c r="IY32" t="n">
-        <v>24766766.64993568</v>
+        <v>24768758.64993568</v>
       </c>
       <c r="IZ32" t="n">
-        <v>99664560.56775618</v>
+        <v>99666552.56775618</v>
       </c>
       <c r="JA32" t="n">
-        <v>33744950.59906638</v>
+        <v>33746942.59906638</v>
       </c>
       <c r="JB32" t="n">
-        <v>1569131160.29039</v>
+        <v>1569133152.29039</v>
       </c>
       <c r="JC32" t="n">
-        <v>111443639.5314632</v>
+        <v>111445631.5314632</v>
       </c>
       <c r="JD32" t="n">
-        <v>540761113.8265381</v>
+        <v>540763105.8265381</v>
       </c>
       <c r="JE32" t="n">
-        <v>11509575.9992832</v>
+        <v>11511567.9992832</v>
       </c>
       <c r="JF32" t="n">
-        <v>6820619.860297203</v>
+        <v>6822611.860297203</v>
       </c>
       <c r="JG32" t="n">
-        <v>5054799.893915191</v>
+        <v>5056791.893915191</v>
       </c>
       <c r="JH32" t="n">
-        <v>-5045315.874727249</v>
+        <v>-5043323.874727249</v>
       </c>
       <c r="JI32" t="n">
-        <v>20164617.75532973</v>
+        <v>20166609.75532973</v>
       </c>
       <c r="JJ32" t="n">
-        <v>620422.8042645454</v>
+        <v>622414.8042645454</v>
       </c>
       <c r="JK32" t="n">
         <v>82.5</v>
@@ -63921,55 +63921,55 @@
         <v>2499</v>
       </c>
       <c r="JN32" t="n">
-        <v>75715042.48247528</v>
+        <v>75717034.48247528</v>
       </c>
       <c r="JO32" t="n">
-        <v>25922398.8219471</v>
+        <v>25924390.8219471</v>
       </c>
       <c r="JP32" t="n">
-        <v>120069041.7944508</v>
+        <v>120071033.7944508</v>
       </c>
       <c r="JQ32" t="n">
-        <v>46965847.86694479</v>
+        <v>46967839.86694479</v>
       </c>
       <c r="JR32" t="n">
-        <v>70527064.65540123</v>
+        <v>70529056.65540123</v>
       </c>
       <c r="JS32" t="n">
-        <v>670356705.7640762</v>
+        <v>670358697.7640762</v>
       </c>
       <c r="JT32" t="n">
-        <v>51876168.18071652</v>
+        <v>51878160.18071652</v>
       </c>
       <c r="JU32" t="n">
-        <v>3565126.202671051</v>
+        <v>3567118.202671051</v>
       </c>
       <c r="JV32" t="n">
-        <v>12326896.84599972</v>
+        <v>12328888.84599972</v>
       </c>
       <c r="JW32" t="n">
-        <v>37728697.37309885</v>
+        <v>37730689.37309885</v>
       </c>
       <c r="JX32" t="n">
-        <v>40756602.41127777</v>
+        <v>40758594.41127777</v>
       </c>
       <c r="JY32" t="n">
-        <v>44991272.46107721</v>
+        <v>44993264.46107721</v>
       </c>
       <c r="JZ32" t="n">
-        <v>1574517808.839996</v>
+        <v>1574519800.839996</v>
       </c>
       <c r="KA32" t="n">
-        <v>144601686.6806984</v>
+        <v>144603678.6806984</v>
       </c>
       <c r="KB32" t="n">
-        <v>6081810.259379447</v>
+        <v>6083802.259379447</v>
       </c>
       <c r="KC32" t="n">
-        <v>5867570.573593915</v>
+        <v>5869562.573593915</v>
       </c>
       <c r="KD32" t="n">
-        <v>18300080.28057683</v>
+        <v>18302072.28057683</v>
       </c>
       <c r="KE32" t="n">
         <v>58.75</v>
@@ -63981,88 +63981,88 @@
         <v>418905095.662057</v>
       </c>
       <c r="KH32" t="n">
-        <v>24331203.25609064</v>
+        <v>24333195.25609064</v>
       </c>
       <c r="KI32" t="n">
-        <v>2002168.90570647</v>
+        <v>2004160.90570647</v>
       </c>
       <c r="KJ32" t="n">
-        <v>351732.1502054818</v>
+        <v>353724.1502054781</v>
       </c>
       <c r="KK32" t="n">
-        <v>11046605.80443126</v>
+        <v>11048597.80443126</v>
       </c>
       <c r="KL32" t="n">
-        <v>16059111.37575269</v>
+        <v>16061103.37575269</v>
       </c>
       <c r="KM32" t="n">
-        <v>72275800.32880116</v>
+        <v>72277792.32880116</v>
       </c>
       <c r="KN32" t="n">
-        <v>27195571.29306245</v>
+        <v>27197563.29306245</v>
       </c>
       <c r="KO32" t="n">
-        <v>-1256865.577428281</v>
+        <v>-1254873.577428281</v>
       </c>
       <c r="KP32" t="n">
-        <v>58531824.01969409</v>
+        <v>58533816.01969409</v>
       </c>
       <c r="KQ32" t="n">
-        <v>857479.2462233454</v>
+        <v>859471.2462233454</v>
       </c>
       <c r="KR32" t="n">
-        <v>1326536.728832796</v>
+        <v>1328528.728832796</v>
       </c>
       <c r="KS32" t="n">
-        <v>76548330.71461919</v>
+        <v>76550322.71461919</v>
       </c>
       <c r="KT32" t="n">
-        <v>19413065.25822234</v>
+        <v>19415057.25822234</v>
       </c>
       <c r="KU32" t="n">
-        <v>3052283.887309611</v>
+        <v>3054275.887309611</v>
       </c>
       <c r="KV32" t="n">
-        <v>1299249.393061891</v>
+        <v>1301241.393061891</v>
       </c>
       <c r="KW32" t="n">
-        <v>48173525.32940245</v>
+        <v>48175517.32940245</v>
       </c>
       <c r="KX32" t="n">
-        <v>2413007.952737085</v>
+        <v>2414999.952737085</v>
       </c>
       <c r="KY32" t="n">
-        <v>2847111.502021447</v>
+        <v>2849103.502021447</v>
       </c>
       <c r="KZ32" t="n">
-        <v>46600628.09850884</v>
+        <v>46602620.09850884</v>
       </c>
       <c r="LA32" t="n">
-        <v>714526490.5021133</v>
+        <v>714528482.5021133</v>
       </c>
       <c r="LB32" t="n">
-        <v>141698858.3267136</v>
+        <v>141700850.3267136</v>
       </c>
       <c r="LC32" t="n">
-        <v>160643847.8314743</v>
+        <v>160645839.8314743</v>
       </c>
       <c r="LD32" t="n">
-        <v>8733328.852080345</v>
+        <v>8735320.852080345</v>
       </c>
       <c r="LE32" t="n">
-        <v>7970181.678737949</v>
+        <v>7972173.678737949</v>
       </c>
       <c r="LF32" t="n">
-        <v>3513519.216788456</v>
+        <v>3515511.216788456</v>
       </c>
       <c r="LG32" t="n">
-        <v>2779685.333329439</v>
+        <v>2781677.333329439</v>
       </c>
       <c r="LH32" t="n">
-        <v>7334294.675244912</v>
+        <v>7336286.675244912</v>
       </c>
       <c r="LI32" t="n">
-        <v>2836606.706461906</v>
+        <v>2838598.706461906</v>
       </c>
       <c r="LJ32" t="n">
         <v>80.625</v>
@@ -64074,13 +64074,13 @@
         <v>402000000</v>
       </c>
       <c r="LM32" t="n">
-        <v>-1991.496282050656</v>
+        <v>0.5037179493448036</v>
       </c>
       <c r="LN32" t="n">
-        <v>-1991.606058348527</v>
+        <v>0.3939416514732876</v>
       </c>
       <c r="LO32" t="n">
-        <v>-1991.38582818471</v>
+        <v>0.6141718152903337</v>
       </c>
       <c r="LP32" t="n">
         <v>15388000000</v>
@@ -64098,13 +64098,13 @@
         <v>203000000</v>
       </c>
       <c r="LU32" t="n">
-        <v>-1991.442894355196</v>
+        <v>0.5571056448039258</v>
       </c>
       <c r="LV32" t="n">
-        <v>-1991.428830901827</v>
+        <v>0.5711690981732769</v>
       </c>
       <c r="LW32" t="n">
-        <v>-1991.45691451558</v>
+        <v>0.5430854844207857</v>
       </c>
       <c r="LX32" t="n">
         <v>91586000000</v>
@@ -64128,82 +64128,82 @@
         <v>8521159036.87682</v>
       </c>
       <c r="ME32" t="n">
-        <v>51759754.71019602</v>
+        <v>51761746.71019602</v>
       </c>
       <c r="MF32" t="n">
-        <v>3898375.789604187</v>
+        <v>3900367.789604187</v>
       </c>
       <c r="MG32" t="n">
-        <v>2358950.54385893</v>
+        <v>2360942.54385893</v>
       </c>
       <c r="MH32" t="n">
-        <v>48182168.78720951</v>
+        <v>48184160.78720951</v>
       </c>
       <c r="MI32" t="n">
-        <v>9943019.403094769</v>
+        <v>9945011.403094769</v>
       </c>
       <c r="MJ32" t="n">
-        <v>170399133.5351982</v>
+        <v>170401125.5351982</v>
       </c>
       <c r="MK32" t="n">
-        <v>4039301.685239986</v>
+        <v>4041293.685239986</v>
       </c>
       <c r="ML32" t="n">
-        <v>35813547.17369616</v>
+        <v>35815539.17369616</v>
       </c>
       <c r="MM32" t="n">
-        <v>124593090.4123688</v>
+        <v>124595082.4123688</v>
       </c>
       <c r="MN32" t="n">
-        <v>1977121.8812408</v>
+        <v>1979113.8812408</v>
       </c>
       <c r="MO32" t="n">
-        <v>12817111.55954337</v>
+        <v>12819103.55954337</v>
       </c>
       <c r="MP32" t="n">
-        <v>-93307.10943222046</v>
+        <v>-91315.10943222046</v>
       </c>
       <c r="MQ32" t="n">
-        <v>27643180.3088994</v>
+        <v>27645172.3088994</v>
       </c>
       <c r="MR32" t="n">
-        <v>9272628.886369944</v>
+        <v>9274620.886369944</v>
       </c>
       <c r="MS32" t="n">
-        <v>24308766.71127772</v>
+        <v>24310758.71127784</v>
       </c>
       <c r="MT32" t="n">
-        <v>139674.7083958387</v>
+        <v>141666.7083958387</v>
       </c>
       <c r="MU32" t="n">
-        <v>14803593.99932432</v>
+        <v>14805585.99932432</v>
       </c>
       <c r="MV32" t="n">
-        <v>13165571.24973599</v>
+        <v>13167563.24973599</v>
       </c>
       <c r="MW32" t="n">
-        <v>1696494060.172928</v>
+        <v>1696496052.172928</v>
       </c>
       <c r="MX32" t="n">
-        <v>452209152.6336746</v>
+        <v>452211144.6336746</v>
       </c>
       <c r="MY32" t="n">
-        <v>683484989.6747208</v>
+        <v>683486981.6747208</v>
       </c>
       <c r="MZ32" t="n">
-        <v>22563588.3269012</v>
+        <v>22565580.3269012</v>
       </c>
       <c r="NA32" t="n">
-        <v>3507257.017978549</v>
+        <v>3509249.017978549</v>
       </c>
       <c r="NB32" t="n">
-        <v>6757206.773866415</v>
+        <v>6759198.773866415</v>
       </c>
       <c r="NC32" t="n">
-        <v>35191510.59934354</v>
+        <v>35193502.59934354</v>
       </c>
       <c r="ND32" t="n">
-        <v>4023108.462327122</v>
+        <v>4025100.462327122</v>
       </c>
       <c r="NE32" t="n">
         <v>58.75</v>
@@ -64212,7 +64212,7 @@
         <v>802000000</v>
       </c>
       <c r="NG32" t="n">
-        <v>-1992.159236424635</v>
+        <v>-0.1592364246351962</v>
       </c>
       <c r="NH32" t="n">
         <v>17737575000</v>
@@ -64230,7 +64230,7 @@
         <v>98000000</v>
       </c>
       <c r="NM32" t="n">
-        <v>-1990.99852696737</v>
+        <v>1.001473032630073</v>
       </c>
       <c r="NN32" t="n">
         <v>93200000000</v>
@@ -64248,10 +64248,10 @@
         <v>33000000</v>
       </c>
       <c r="NS32" t="n">
-        <v>-1991.553389260261</v>
+        <v>0.4466107397393912</v>
       </c>
       <c r="NT32" t="n">
-        <v>-1991.775850601161</v>
+        <v>0.2241493988395007</v>
       </c>
       <c r="NU32" t="n">
         <v>5674700000</v>
@@ -64269,7 +64269,7 @@
         <v>555000000</v>
       </c>
       <c r="NZ32" t="n">
-        <v>-1991.086348979924</v>
+        <v>0.9136510200757826</v>
       </c>
       <c r="OA32" t="n">
         <v>60383547375</v>
@@ -64287,10 +64287,10 @@
         <v>693000000</v>
       </c>
       <c r="OF32" t="n">
-        <v>-1990.210134583603</v>
+        <v>1.789865416396609</v>
       </c>
       <c r="OG32" t="n">
-        <v>-1985.080208864629</v>
+        <v>6.91979113537036</v>
       </c>
       <c r="OH32" t="n">
         <v>916014700000</v>
@@ -64314,82 +64314,82 @@
         <v>296438564342.788</v>
       </c>
       <c r="OO32" t="n">
-        <v>-58175.95493602753</v>
+        <v>-56183.95493602753</v>
       </c>
       <c r="OP32" t="n">
-        <v>17611869.93681049</v>
+        <v>17613861.93681049</v>
       </c>
       <c r="OQ32" t="n">
-        <v>-3665003.499691308</v>
+        <v>-3663011.499691308</v>
       </c>
       <c r="OR32" t="n">
-        <v>-25346474.79841137</v>
+        <v>-25344482.79841137</v>
       </c>
       <c r="OS32" t="n">
-        <v>-1514727.650088906</v>
+        <v>-1512735.650088906</v>
       </c>
       <c r="OT32" t="n">
-        <v>128845456.8510475</v>
+        <v>128847448.8510475</v>
       </c>
       <c r="OU32" t="n">
-        <v>-985164.3335829972</v>
+        <v>-983172.3335829972</v>
       </c>
       <c r="OV32" t="n">
-        <v>122847204.4418509</v>
+        <v>122849196.4418509</v>
       </c>
       <c r="OW32" t="n">
-        <v>447838506.509901</v>
+        <v>447840498.509901</v>
       </c>
       <c r="OX32" t="n">
-        <v>88088.32818829268</v>
+        <v>90080.32818829268</v>
       </c>
       <c r="OY32" t="n">
-        <v>-37795830.57003593</v>
+        <v>-37793838.57003593</v>
       </c>
       <c r="OZ32" t="n">
-        <v>-1273311531.058289</v>
+        <v>-1273309539.058289</v>
       </c>
       <c r="PA32" t="n">
-        <v>-9013210.471773865</v>
+        <v>-9011218.471773865</v>
       </c>
       <c r="PB32" t="n">
-        <v>357755.1266813613</v>
+        <v>359747.1266813613</v>
       </c>
       <c r="PC32" t="n">
-        <v>-24704.71669983864</v>
+        <v>-22712.71669983864</v>
       </c>
       <c r="PD32" t="n">
-        <v>501272.3598386645</v>
+        <v>503264.3598386645</v>
       </c>
       <c r="PE32" t="n">
-        <v>14406582.61951244</v>
+        <v>14408574.61951245</v>
       </c>
       <c r="PF32" t="n">
-        <v>-46699555.6679554</v>
+        <v>-46697563.6679554</v>
       </c>
       <c r="PG32" t="n">
-        <v>563640.3219168186</v>
+        <v>565632.3219168186</v>
       </c>
       <c r="PH32" t="n">
-        <v>7098904.567859858</v>
+        <v>7100896.567859858</v>
       </c>
       <c r="PI32" t="n">
-        <v>-571043698.0319824</v>
+        <v>-571041706.0319824</v>
       </c>
       <c r="PJ32" t="n">
-        <v>61789456.36513474</v>
+        <v>61791448.36513474</v>
       </c>
       <c r="PK32" t="n">
-        <v>9529459.528921902</v>
+        <v>9531451.528921902</v>
       </c>
       <c r="PL32" t="n">
-        <v>-4815549.530819654</v>
+        <v>-4813557.530819654</v>
       </c>
       <c r="PM32" t="n">
-        <v>2118705.781904787</v>
+        <v>2120697.781904787</v>
       </c>
       <c r="PN32" t="n">
-        <v>4613977.686398625</v>
+        <v>4615969.686398625</v>
       </c>
       <c r="PO32" t="n">
         <v>78.125</v>
@@ -64398,13 +64398,13 @@
         <v>1103000000</v>
       </c>
       <c r="PQ32" t="n">
-        <v>-1991.805778173104</v>
+        <v>0.1942218268970634</v>
       </c>
       <c r="PR32" t="n">
-        <v>-1991.759305971913</v>
+        <v>0.2406940280868283</v>
       </c>
       <c r="PS32" t="n">
-        <v>-1991.854318038257</v>
+        <v>0.1456819617428593</v>
       </c>
       <c r="PT32" t="n">
         <v>7033637500000</v>
@@ -64422,7 +64422,7 @@
         <v>189000000</v>
       </c>
       <c r="PY32" t="n">
-        <v>-1991.265555835075</v>
+        <v>0.7344441649246374</v>
       </c>
       <c r="PZ32" t="n">
         <v>62628200000000</v>
@@ -64452,76 +64452,76 @@
         <v>3191915666.4663</v>
       </c>
       <c r="QI32" t="n">
-        <v>2971267.081884474</v>
+        <v>2973259.081884474</v>
       </c>
       <c r="QJ32" t="n">
-        <v>10854352.79618621</v>
+        <v>10856344.79618621</v>
       </c>
       <c r="QK32" t="n">
-        <v>12068536.54999214</v>
+        <v>12070528.54999214</v>
       </c>
       <c r="QL32" t="n">
-        <v>55795916.0230341</v>
+        <v>55797908.0230341</v>
       </c>
       <c r="QM32" t="n">
-        <v>11109829.19522764</v>
+        <v>11111821.19522764</v>
       </c>
       <c r="QN32" t="n">
-        <v>198798973.4686375</v>
+        <v>198800965.4686375</v>
       </c>
       <c r="QO32" t="n">
-        <v>163374699.6713493</v>
+        <v>163376691.6713493</v>
       </c>
       <c r="QP32" t="n">
-        <v>195403368.7677593</v>
+        <v>195405360.7677593</v>
       </c>
       <c r="QQ32" t="n">
-        <v>2878789.595254764</v>
+        <v>2880781.595254764</v>
       </c>
       <c r="QR32" t="n">
-        <v>28665340.77019596</v>
+        <v>28667332.77019596</v>
       </c>
       <c r="QS32" t="n">
-        <v>75673478.90766069</v>
+        <v>75675470.90766069</v>
       </c>
       <c r="QT32" t="n">
-        <v>6917617.126303077</v>
+        <v>6919609.126303077</v>
       </c>
       <c r="QU32" t="n">
-        <v>30941824.14104771</v>
+        <v>30943816.14104771</v>
       </c>
       <c r="QV32" t="n">
-        <v>22589318.02165818</v>
+        <v>22591310.02165818</v>
       </c>
       <c r="QW32" t="n">
-        <v>9896677.948810576</v>
+        <v>9898669.948810576</v>
       </c>
       <c r="QX32" t="n">
-        <v>20246375.82240987</v>
+        <v>20248367.82240987</v>
       </c>
       <c r="QY32" t="n">
-        <v>14709111.38847446</v>
+        <v>14711103.38847446</v>
       </c>
       <c r="QZ32" t="n">
-        <v>2231558911.966049</v>
+        <v>2231560903.966049</v>
       </c>
       <c r="RA32" t="n">
-        <v>504703549.2489777</v>
+        <v>504705541.2489777</v>
       </c>
       <c r="RB32" t="n">
-        <v>855653641.7663498</v>
+        <v>855655633.7663498</v>
       </c>
       <c r="RC32" t="n">
-        <v>23115409.44820046</v>
+        <v>23117401.44820046</v>
       </c>
       <c r="RD32" t="n">
-        <v>6310085.115596056</v>
+        <v>6312077.115596056</v>
       </c>
       <c r="RE32" t="n">
-        <v>8356589.347575188</v>
+        <v>8358581.347575188</v>
       </c>
       <c r="RF32" t="n">
-        <v>61609811.86159611</v>
+        <v>61611803.86159611</v>
       </c>
       <c r="RG32" t="n">
         <v>66.25</v>
@@ -64533,85 +64533,85 @@
         <v>999541975.923081</v>
       </c>
       <c r="RJ32" t="n">
-        <v>10309939.01390684</v>
+        <v>10311931.01390684</v>
       </c>
       <c r="RK32" t="n">
-        <v>3305502.212430105</v>
+        <v>3307494.212430105</v>
       </c>
       <c r="RL32" t="n">
-        <v>17341410.1385237</v>
+        <v>17343402.1385237</v>
       </c>
       <c r="RM32" t="n">
-        <v>46070398.16828871</v>
+        <v>46072390.16828871</v>
       </c>
       <c r="RN32" t="n">
-        <v>62355272.32142592</v>
+        <v>62357264.32142592</v>
       </c>
       <c r="RO32" t="n">
-        <v>169090536.4045887</v>
+        <v>169092528.4045887</v>
       </c>
       <c r="RP32" t="n">
-        <v>22486076.72203445</v>
+        <v>22488068.72203445</v>
       </c>
       <c r="RQ32" t="n">
-        <v>99575203.26016808</v>
+        <v>99577195.26016808</v>
       </c>
       <c r="RR32" t="n">
-        <v>92546673.5750494</v>
+        <v>92548665.5750494</v>
       </c>
       <c r="RS32" t="n">
-        <v>12693456.30925155</v>
+        <v>12695448.30925155</v>
       </c>
       <c r="RT32" t="n">
-        <v>9564238.025716186</v>
+        <v>9566230.025716186</v>
       </c>
       <c r="RU32" t="n">
-        <v>144014102.8128538</v>
+        <v>144016094.8128538</v>
       </c>
       <c r="RV32" t="n">
-        <v>21453088.5810709</v>
+        <v>21455080.5810709</v>
       </c>
       <c r="RW32" t="n">
-        <v>11663364.12194014</v>
+        <v>11665356.12194014</v>
       </c>
       <c r="RX32" t="n">
-        <v>1187571.203748614</v>
+        <v>1189563.203748614</v>
       </c>
       <c r="RY32" t="n">
-        <v>17596789.58240485</v>
+        <v>17598781.58240485</v>
       </c>
       <c r="RZ32" t="n">
-        <v>2329485.755267799</v>
+        <v>2331477.755267799</v>
       </c>
       <c r="SA32" t="n">
-        <v>71975616.67195559</v>
+        <v>71977608.67195559</v>
       </c>
       <c r="SB32" t="n">
-        <v>12773019.30378103</v>
+        <v>12775011.30378103</v>
       </c>
       <c r="SC32" t="n">
-        <v>1957022045.022583</v>
+        <v>1957024037.022583</v>
       </c>
       <c r="SD32" t="n">
-        <v>185523500.8676567</v>
+        <v>185525492.8676567</v>
       </c>
       <c r="SE32" t="n">
-        <v>932628345.8313446</v>
+        <v>932630337.8313446</v>
       </c>
       <c r="SF32" t="n">
-        <v>18573610.42818689</v>
+        <v>18575602.42818689</v>
       </c>
       <c r="SG32" t="n">
-        <v>4156671.535392136</v>
+        <v>4158663.535392136</v>
       </c>
       <c r="SH32" t="n">
-        <v>5193543.472206682</v>
+        <v>5195535.472206682</v>
       </c>
       <c r="SI32" t="n">
-        <v>15013384.05592573</v>
+        <v>15015376.05592573</v>
       </c>
       <c r="SJ32" t="n">
-        <v>-705810.2938234806</v>
+        <v>-703818.2938234806</v>
       </c>
       <c r="SK32" t="n">
         <v>83.75</v>
@@ -64623,85 +64623,85 @@
         <v>905071614.367607</v>
       </c>
       <c r="SN32" t="n">
-        <v>4968559.756675214</v>
+        <v>4970551.756675214</v>
       </c>
       <c r="SO32" t="n">
-        <v>-353049.3991414309</v>
+        <v>-351057.3991414309</v>
       </c>
       <c r="SP32" t="n">
-        <v>13578467.86767471</v>
+        <v>13580459.86767471</v>
       </c>
       <c r="SQ32" t="n">
-        <v>105216973.612608</v>
+        <v>105218965.612608</v>
       </c>
       <c r="SR32" t="n">
-        <v>63541249.24215674</v>
+        <v>63543241.24215674</v>
       </c>
       <c r="SS32" t="n">
-        <v>146962214.5990934</v>
+        <v>146964206.5990934</v>
       </c>
       <c r="ST32" t="n">
-        <v>32761456.71520996</v>
+        <v>32763448.71520996</v>
       </c>
       <c r="SU32" t="n">
-        <v>38150628.74032045</v>
+        <v>38152620.74032045</v>
       </c>
       <c r="SV32" t="n">
-        <v>60528169.55725241</v>
+        <v>60530161.55725241</v>
       </c>
       <c r="SW32" t="n">
-        <v>42409433.60586143</v>
+        <v>42411425.60586143</v>
       </c>
       <c r="SX32" t="n">
-        <v>5750306.981293917</v>
+        <v>5752298.981293917</v>
       </c>
       <c r="SY32" t="n">
-        <v>100523753.2515349</v>
+        <v>100525745.2515349</v>
       </c>
       <c r="SZ32" t="n">
-        <v>71130972.89732647</v>
+        <v>71132964.89732647</v>
       </c>
       <c r="TA32" t="n">
-        <v>4604473.351634979</v>
+        <v>4606465.351634979</v>
       </c>
       <c r="TB32" t="n">
-        <v>559640.1844187956</v>
+        <v>561632.1844187956</v>
       </c>
       <c r="TC32" t="n">
-        <v>69996214.46088696</v>
+        <v>69998206.46088696</v>
       </c>
       <c r="TD32" t="n">
-        <v>2585065.452914357</v>
+        <v>2587057.452914357</v>
       </c>
       <c r="TE32" t="n">
-        <v>107069661.7563286</v>
+        <v>107071653.7563286</v>
       </c>
       <c r="TF32" t="n">
-        <v>35068422.12879682</v>
+        <v>35070414.12879682</v>
       </c>
       <c r="TG32" t="n">
-        <v>1804614052.944961</v>
+        <v>1804616044.944961</v>
       </c>
       <c r="TH32" t="n">
-        <v>226691295.9787751</v>
+        <v>226693287.9787751</v>
       </c>
       <c r="TI32" t="n">
-        <v>665064147.1948776</v>
+        <v>665066139.1948776</v>
       </c>
       <c r="TJ32" t="n">
-        <v>6487727.71725595</v>
+        <v>6489719.71725595</v>
       </c>
       <c r="TK32" t="n">
-        <v>6261232.999657989</v>
+        <v>6263224.999657989</v>
       </c>
       <c r="TL32" t="n">
-        <v>4608963.770536408</v>
+        <v>4610955.770536408</v>
       </c>
       <c r="TM32" t="n">
-        <v>22980906.1070683</v>
+        <v>22982898.1070683</v>
       </c>
       <c r="TN32" t="n">
-        <v>-723195.9299980402</v>
+        <v>-721203.9299980402</v>
       </c>
       <c r="TO32" t="n">
         <v>81.25</v>
@@ -64713,142 +64713,142 @@
         <v>976660986.243341</v>
       </c>
       <c r="TR32" t="n">
-        <v>4395134.398483902</v>
+        <v>4397126.398483902</v>
       </c>
       <c r="TS32" t="n">
-        <v>11595801.06910503</v>
+        <v>11597793.06910503</v>
       </c>
       <c r="TT32" t="n">
-        <v>32010766.19745541</v>
+        <v>32012758.19745541</v>
       </c>
       <c r="TU32" t="n">
-        <v>19589341.17552757</v>
+        <v>19591333.17552757</v>
       </c>
       <c r="TV32" t="n">
-        <v>54819801.48825026</v>
+        <v>54821793.48825026</v>
       </c>
       <c r="TW32" t="n">
-        <v>155381387.8638706</v>
+        <v>155383379.8638706</v>
       </c>
       <c r="TX32" t="n">
-        <v>6590145.957783937</v>
+        <v>6592137.957783937</v>
       </c>
       <c r="TY32" t="n">
-        <v>37903157.88337469</v>
+        <v>37905149.88337469</v>
       </c>
       <c r="TZ32" t="n">
-        <v>62169041.99956369</v>
+        <v>62171033.99956369</v>
       </c>
       <c r="UA32" t="n">
-        <v>45044076.9892714</v>
+        <v>45046068.9892714</v>
       </c>
       <c r="UB32" t="n">
-        <v>1801249.566406012</v>
+        <v>1803241.566406012</v>
       </c>
       <c r="UC32" t="n">
-        <v>66622307.0296464</v>
+        <v>66624299.0296464</v>
       </c>
       <c r="UD32" t="n">
-        <v>25953157.83661556</v>
+        <v>25955149.83661556</v>
       </c>
       <c r="UE32" t="n">
-        <v>35445294.6803751</v>
+        <v>35447286.6803751</v>
       </c>
       <c r="UF32" t="n">
-        <v>56195179.84264088</v>
+        <v>56197171.84264088</v>
       </c>
       <c r="UG32" t="n">
-        <v>5942237.921595812</v>
+        <v>5944229.921595812</v>
       </c>
       <c r="UH32" t="n">
-        <v>65110788.82310486</v>
+        <v>65112780.82310486</v>
       </c>
       <c r="UI32" t="n">
-        <v>2563571.230199375</v>
+        <v>2565563.230199375</v>
       </c>
       <c r="UJ32" t="n">
-        <v>1529106534.364441</v>
+        <v>1529108526.364441</v>
       </c>
       <c r="UK32" t="n">
-        <v>152716950.8132153</v>
+        <v>152718942.8132153</v>
       </c>
       <c r="UL32" t="n">
-        <v>675793293.5954208</v>
+        <v>675795285.5954208</v>
       </c>
       <c r="UM32" t="n">
-        <v>15335724.98514283</v>
+        <v>15337716.98514283</v>
       </c>
       <c r="UN32" t="n">
-        <v>7533554.712217659</v>
+        <v>7535546.712217659</v>
       </c>
       <c r="UO32" t="n">
-        <v>5541681.382682353</v>
+        <v>5543673.382682353</v>
       </c>
       <c r="UP32" t="n">
-        <v>23766418.73967946</v>
+        <v>23768410.73967946</v>
       </c>
       <c r="UQ32" t="n">
-        <v>4346476.72558105</v>
+        <v>4348468.72558105</v>
       </c>
       <c r="UR32" t="n">
         <v>83.75</v>
       </c>
       <c r="US32" t="n">
-        <v>2738628.734932274</v>
+        <v>2740620.734932274</v>
       </c>
       <c r="UT32" t="n">
-        <v>41517870.11048508</v>
+        <v>41519862.11048508</v>
       </c>
       <c r="UU32" t="n">
-        <v>21464696.94186139</v>
+        <v>21466688.94186139</v>
       </c>
       <c r="UV32" t="n">
-        <v>172083109.8006783</v>
+        <v>172085101.8006783</v>
       </c>
       <c r="UW32" t="n">
-        <v>3346651.685757518</v>
+        <v>3348643.685757518</v>
       </c>
       <c r="UX32" t="n">
-        <v>275230606.0394745</v>
+        <v>275232598.0394745</v>
       </c>
       <c r="UY32" t="n">
-        <v>3248674.617233861</v>
+        <v>3250666.617233861</v>
       </c>
       <c r="UZ32" t="n">
-        <v>39797731.66574168</v>
+        <v>39799723.66574168</v>
       </c>
       <c r="VA32" t="n">
-        <v>13809226.26387668</v>
+        <v>13811218.26387668</v>
       </c>
       <c r="VB32" t="n">
-        <v>31525525.41957393</v>
+        <v>31527517.41957393</v>
       </c>
       <c r="VC32" t="n">
-        <v>22779761.11690545</v>
+        <v>22781753.11690545</v>
       </c>
       <c r="VD32" t="n">
-        <v>40650973.57134581</v>
+        <v>40652965.57134581</v>
       </c>
       <c r="VE32" t="n">
-        <v>1527394256.934524</v>
+        <v>1527396248.934524</v>
       </c>
       <c r="VF32" t="n">
-        <v>214112902.3325577</v>
+        <v>214114894.3325577</v>
       </c>
       <c r="VG32" t="n">
-        <v>596930628.6974564</v>
+        <v>596932620.6974564</v>
       </c>
       <c r="VH32" t="n">
-        <v>4223642.954167515</v>
+        <v>4225634.954167515</v>
       </c>
       <c r="VI32" t="n">
-        <v>4103022.484504193</v>
+        <v>4105014.484504193</v>
       </c>
       <c r="VJ32" t="n">
-        <v>12145410.04208207</v>
+        <v>12147402.04208207</v>
       </c>
       <c r="VK32" t="n">
-        <v>16682697.86346364</v>
+        <v>16684689.86346364</v>
       </c>
       <c r="VL32" t="n">
         <v>26.875</v>
@@ -64860,163 +64860,163 @@
         <v>135319772.794226</v>
       </c>
       <c r="VO32" t="n">
-        <v>5161295.381725073</v>
+        <v>5163287.381725073</v>
       </c>
       <c r="VP32" t="n">
-        <v>-780819.5826208591</v>
+        <v>-778827.5826208591</v>
       </c>
       <c r="VQ32" t="n">
-        <v>9702674.736036897</v>
+        <v>9704666.736036897</v>
       </c>
       <c r="VR32" t="n">
-        <v>15221801.24353975</v>
+        <v>15223793.24353975</v>
       </c>
       <c r="VS32" t="n">
-        <v>117176721.7086368</v>
+        <v>117178713.7086368</v>
       </c>
       <c r="VT32" t="n">
-        <v>1502375.82021632</v>
+        <v>1504367.82021632</v>
       </c>
       <c r="VU32" t="n">
-        <v>-254902.066229552</v>
+        <v>-252910.066229552</v>
       </c>
       <c r="VV32" t="n">
-        <v>64468260.96879864</v>
+        <v>64470252.96879864</v>
       </c>
       <c r="VW32" t="n">
-        <v>30361985.10963201</v>
+        <v>30363977.10963201</v>
       </c>
       <c r="VX32" t="n">
-        <v>27322950.20952868</v>
+        <v>27324942.20952868</v>
       </c>
       <c r="VY32" t="n">
-        <v>3745815.64768064</v>
+        <v>3747807.64768064</v>
       </c>
       <c r="VZ32" t="n">
-        <v>697771.4307640642</v>
+        <v>699763.4307640642</v>
       </c>
       <c r="WA32" t="n">
-        <v>174833.3983131475</v>
+        <v>176825.3983131475</v>
       </c>
       <c r="WB32" t="n">
-        <v>82387778.6886816</v>
+        <v>82389770.6886816</v>
       </c>
       <c r="WC32" t="n">
-        <v>808584.0871202536</v>
+        <v>810576.0871202536</v>
       </c>
       <c r="WD32" t="n">
-        <v>5310697.584904715</v>
+        <v>5312689.584904715</v>
       </c>
       <c r="WE32" t="n">
-        <v>774602.7270909101</v>
+        <v>776594.7270909101</v>
       </c>
       <c r="WF32" t="n">
-        <v>847243989.4711456</v>
+        <v>847245981.4711456</v>
       </c>
       <c r="WG32" t="n">
-        <v>130341938.321178</v>
+        <v>130343930.321178</v>
       </c>
       <c r="WH32" t="n">
-        <v>345960701.19907</v>
+        <v>345962693.19907</v>
       </c>
       <c r="WI32" t="n">
-        <v>14043330.30104184</v>
+        <v>14045322.30104184</v>
       </c>
       <c r="WJ32" t="n">
-        <v>10779634.86358923</v>
+        <v>10781626.86358923</v>
       </c>
       <c r="WK32" t="n">
-        <v>3329219.686682433</v>
+        <v>3331211.686682433</v>
       </c>
       <c r="WL32" t="n">
-        <v>1419979.635619104</v>
+        <v>1421971.635619104</v>
       </c>
       <c r="WM32" t="n">
-        <v>13662066.24628365</v>
+        <v>13664058.24628365</v>
       </c>
       <c r="WN32" t="n">
-        <v>-2977524.27969265</v>
+        <v>-2975532.27969265</v>
       </c>
       <c r="WO32" t="n">
         <v>80</v>
       </c>
       <c r="WP32" t="n">
-        <v>15605709.19031274</v>
+        <v>15607701.19031274</v>
       </c>
       <c r="WQ32" t="n">
-        <v>-85486.25337095559</v>
+        <v>-83494.25337095559</v>
       </c>
       <c r="WR32" t="n">
-        <v>950605.6938762964</v>
+        <v>952597.6938762964</v>
       </c>
       <c r="WS32" t="n">
-        <v>8362858.643585473</v>
+        <v>8364850.643585473</v>
       </c>
       <c r="WT32" t="n">
-        <v>9478346.916200042</v>
+        <v>9480338.916200042</v>
       </c>
       <c r="WU32" t="n">
-        <v>79731180.67428875</v>
+        <v>79733172.67428875</v>
       </c>
       <c r="WV32" t="n">
-        <v>316858.5253486931</v>
+        <v>318850.5253486931</v>
       </c>
       <c r="WW32" t="n">
-        <v>3163893.115183637</v>
+        <v>3165885.115183637</v>
       </c>
       <c r="WX32" t="n">
-        <v>36119594.25372529</v>
+        <v>36121586.25372529</v>
       </c>
       <c r="WY32" t="n">
-        <v>11855433.2169708</v>
+        <v>11857425.2169708</v>
       </c>
       <c r="WZ32" t="n">
-        <v>-1758773.552235126</v>
+        <v>-1756781.552235126</v>
       </c>
       <c r="XA32" t="n">
-        <v>5981180.704981804</v>
+        <v>5983172.704981804</v>
       </c>
       <c r="XB32" t="n">
-        <v>2400692.714356095</v>
+        <v>2402684.714356095</v>
       </c>
       <c r="XC32" t="n">
-        <v>-2584842.568321944</v>
+        <v>-2582850.568321944</v>
       </c>
       <c r="XD32" t="n">
-        <v>728402.1006877739</v>
+        <v>730394.1006877739</v>
       </c>
       <c r="XE32" t="n">
-        <v>13381893.0470795</v>
+        <v>13383885.0470795</v>
       </c>
       <c r="XF32" t="n">
-        <v>576812.5809529275</v>
+        <v>578804.5809529275</v>
       </c>
       <c r="XG32" t="n">
-        <v>40044490.68250227</v>
+        <v>40046482.68250227</v>
       </c>
       <c r="XH32" t="n">
-        <v>12919870.08367348</v>
+        <v>12921862.08367348</v>
       </c>
       <c r="XI32" t="n">
-        <v>675478421.9755287</v>
+        <v>675480413.9755287</v>
       </c>
       <c r="XJ32" t="n">
-        <v>145082995.9122324</v>
+        <v>145084987.9122324</v>
       </c>
       <c r="XK32" t="n">
-        <v>293473410.2554398</v>
+        <v>293475402.2554398</v>
       </c>
       <c r="XL32" t="n">
-        <v>6885252.560526669</v>
+        <v>6887244.560526669</v>
       </c>
       <c r="XM32" t="n">
-        <v>3617295.2332066</v>
+        <v>3619287.2332066</v>
       </c>
       <c r="XN32" t="n">
-        <v>3259591.063408837</v>
+        <v>3261583.063408837</v>
       </c>
       <c r="XO32" t="n">
-        <v>7793492.261129141</v>
+        <v>7795484.261129141</v>
       </c>
       <c r="XP32" t="n">
         <v>86.875</v>
@@ -65028,49 +65028,49 @@
         <v>372391938.809795</v>
       </c>
       <c r="XS32" t="n">
-        <v>14122076.80293775</v>
+        <v>14124068.80293775</v>
       </c>
       <c r="XT32" t="n">
-        <v>162549803.3050537</v>
+        <v>162551795.3050537</v>
       </c>
       <c r="XU32" t="n">
-        <v>69449525.46026421</v>
+        <v>69451517.46026421</v>
       </c>
       <c r="XV32" t="n">
-        <v>32042444.65208483</v>
+        <v>32044436.65208483</v>
       </c>
       <c r="XW32" t="n">
-        <v>3352651.697539955</v>
+        <v>3354643.697539955</v>
       </c>
       <c r="XX32" t="n">
-        <v>13790743.47944665</v>
+        <v>13792735.47944665</v>
       </c>
       <c r="XY32" t="n">
-        <v>4494754.015764535</v>
+        <v>4496746.015764535</v>
       </c>
       <c r="XZ32" t="n">
-        <v>12004216.53353476</v>
+        <v>12006208.53353476</v>
       </c>
       <c r="YA32" t="n">
-        <v>31022099.79731345</v>
+        <v>31024091.79731345</v>
       </c>
       <c r="YB32" t="n">
-        <v>472561619.5121727</v>
+        <v>472563611.5121727</v>
       </c>
       <c r="YC32" t="n">
-        <v>111870146.5089827</v>
+        <v>111872138.5089827</v>
       </c>
       <c r="YD32" t="n">
-        <v>5257618.301050644</v>
+        <v>5259610.301050644</v>
       </c>
       <c r="YE32" t="n">
-        <v>4145059.354660422</v>
+        <v>4147051.354660422</v>
       </c>
       <c r="YF32" t="n">
-        <v>20584088.46564555</v>
+        <v>20586080.46564555</v>
       </c>
       <c r="YG32" t="n">
-        <v>4476397.512207426</v>
+        <v>4478389.512207426</v>
       </c>
       <c r="YH32" t="n">
         <v>66.25</v>
